--- a/master.xlsx
+++ b/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gad-shaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7076C47F-C301-41F9-B104-57456583A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129B9EC-C5B1-4BF8-89B8-80E4953DC6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="272">
   <si>
     <t>Wire No.</t>
   </si>
@@ -986,13 +986,6 @@
   </si>
   <si>
     <t>41. 0160 , 2.00</t>
-  </si>
-  <si>
-    <t>Power Cord</t>
-  </si>
-  <si>
-    <t>SPL-LINE
-63130-2 ..A</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1044,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1066,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,6 +1134,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,14 +1419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I212"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2958,427 +2966,437 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="D54" s="6" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="E54" s="5">
-        <v>365</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+        <v>980</v>
+      </c>
+      <c r="F54" s="5">
+        <v>5</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="H54" s="5">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="E55" s="5">
-        <v>980</v>
+        <v>1200</v>
       </c>
       <c r="F55" s="5">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="5">
         <v>5</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="H55" s="5">
-        <v>11</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="E56" s="5">
-        <v>1200</v>
+        <v>1810</v>
       </c>
       <c r="F56" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H56" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E57" s="5">
-        <v>1810</v>
+        <v>2650</v>
       </c>
       <c r="F57" s="5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H57" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>124</v>
+        <v>3</v>
+      </c>
+      <c r="I57" s="5">
+        <v>39000040</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="E58" s="5">
-        <v>2650</v>
+        <v>625</v>
       </c>
       <c r="F58" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>141</v>
+        <v>3</v>
+      </c>
+      <c r="G58" s="5">
+        <v>39000040</v>
       </c>
       <c r="H58" s="5">
-        <v>3</v>
-      </c>
-      <c r="I58" s="5">
-        <v>39000040</v>
+        <v>11</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E59" s="5">
-        <v>625</v>
+        <v>1610</v>
       </c>
       <c r="F59" s="5">
-        <v>3</v>
-      </c>
-      <c r="G59" s="5">
-        <v>39000040</v>
+        <v>2</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="H59" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="E60" s="5">
-        <v>1610</v>
+        <v>650</v>
       </c>
       <c r="F60" s="5">
-        <v>2</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G60" s="5">
+        <v>39000048</v>
       </c>
       <c r="H60" s="5">
         <v>7</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="E61" s="5">
-        <v>650</v>
+        <f>1400+10</f>
+        <v>1410</v>
       </c>
       <c r="F61" s="5">
-        <v>3</v>
-      </c>
-      <c r="G61" s="5">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3</v>
+      </c>
+      <c r="I61" s="5">
         <v>39000048</v>
-      </c>
-      <c r="H61" s="5">
-        <v>7</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="E62" s="5">
         <f>1400+10</f>
         <v>1410</v>
       </c>
       <c r="F62" s="5">
-        <v>2</v>
-      </c>
-      <c r="G62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="5">
+        <v>39000048</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="H62" s="5">
-        <v>3</v>
-      </c>
-      <c r="I62" s="5">
-        <v>39000048</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="E63" s="5">
-        <f>1400+10</f>
-        <v>1410</v>
+        <v>1230</v>
       </c>
       <c r="F63" s="5">
-        <v>3</v>
-      </c>
-      <c r="G63" s="5">
-        <v>39000048</v>
+        <v>3.5</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="H63" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E64" s="5">
-        <v>1230</v>
+        <f>2220-140</f>
+        <v>2080</v>
       </c>
       <c r="F64" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="H64" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E65" s="5">
-        <f>2220-140</f>
-        <v>2080</v>
+        <f>1320+5</f>
+        <v>1325</v>
       </c>
       <c r="F65" s="5">
-        <v>2</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G65" s="5">
+        <v>39000048</v>
       </c>
       <c r="H65" s="5">
-        <v>3</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>152</v>
+        <v>2</v>
+      </c>
+      <c r="I65" s="5">
+        <v>561349000</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="E66" s="5">
-        <f>1320+5</f>
-        <v>1325</v>
+        <v>950</v>
       </c>
       <c r="F66" s="5">
-        <v>3</v>
-      </c>
-      <c r="G66" s="5">
-        <v>39000048</v>
+        <v>3.5</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="H66" s="5">
-        <v>2</v>
-      </c>
-      <c r="I66" s="5">
-        <v>561349000</v>
+        <v>11</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E67" s="5">
-        <v>950</v>
+        <f>2590+10</f>
+        <v>2600</v>
       </c>
       <c r="F67" s="5">
         <v>3.5</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H67" s="5">
-        <v>11</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>155</v>
+        <v>3</v>
+      </c>
+      <c r="I67" s="5">
+        <v>39000048</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="E68" s="5">
-        <f>2590+10</f>
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="F68" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="H68" s="5">
         <v>3</v>
@@ -3389,107 +3407,107 @@
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="E69" s="5">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="F69" s="5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="H69" s="5">
-        <v>3</v>
-      </c>
-      <c r="I69" s="5">
-        <v>39000048</v>
+        <v>5</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="E70" s="5">
-        <v>1120</v>
+        <f>660+5</f>
+        <v>665</v>
       </c>
       <c r="F70" s="5">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H70" s="5">
-        <v>5</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>160</v>
+        <v>3</v>
+      </c>
+      <c r="I70" s="5">
+        <v>39000048</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="E71" s="5">
-        <f>660+5</f>
-        <v>665</v>
+        <f>1320-15</f>
+        <v>1305</v>
       </c>
       <c r="F71" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H71" s="5">
-        <v>3</v>
-      </c>
-      <c r="I71" s="5">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E72" s="5">
-        <f>1320-15</f>
         <v>1305</v>
       </c>
       <c r="F72" s="5">
@@ -3507,178 +3525,178 @@
     </row>
     <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="E73" s="5">
-        <v>1305</v>
+        <v>1235</v>
       </c>
       <c r="F73" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="H73" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E74" s="5">
-        <v>1235</v>
+        <f>1280-300</f>
+        <v>980</v>
       </c>
       <c r="F74" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>141</v>
+        <v>3</v>
+      </c>
+      <c r="G74" s="5">
+        <v>39000040</v>
       </c>
       <c r="H74" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="E75" s="5">
-        <f>1280-300</f>
-        <v>980</v>
+        <f>220+15</f>
+        <v>235</v>
       </c>
       <c r="F75" s="5">
-        <v>3</v>
-      </c>
-      <c r="G75" s="5">
-        <v>39000040</v>
+        <v>5</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H75" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="E76" s="5">
-        <f>220+15</f>
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="F76" s="5">
-        <v>5</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G76" s="5">
+        <v>39000040</v>
       </c>
       <c r="H76" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="5">
-        <v>625</v>
+        <v>855</v>
       </c>
       <c r="F77" s="5">
-        <v>3</v>
-      </c>
-      <c r="G77" s="5">
-        <v>39000040</v>
+        <v>3.5</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="H77" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="E78" s="5">
-        <v>855</v>
+        <v>2200</v>
       </c>
       <c r="F78" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>141</v>
+        <v>3</v>
+      </c>
+      <c r="G78" s="5">
+        <v>39000040</v>
       </c>
       <c r="H78" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3695,7 +3713,7 @@
         <v>176</v>
       </c>
       <c r="E79" s="5">
-        <v>2200</v>
+        <v>780</v>
       </c>
       <c r="F79" s="5">
         <v>3</v>
@@ -3707,138 +3725,139 @@
         <v>11</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="E80" s="5">
-        <v>780</v>
+        <v>890</v>
       </c>
       <c r="F80" s="5">
         <v>3</v>
       </c>
       <c r="G80" s="5">
-        <v>39000040</v>
+        <v>39000048</v>
       </c>
       <c r="H80" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E81" s="5">
-        <v>890</v>
+        <v>2580</v>
       </c>
       <c r="F81" s="5">
-        <v>3</v>
-      </c>
-      <c r="G81" s="5">
-        <v>39000048</v>
+        <v>3.5</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="H81" s="5">
-        <v>7</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>171</v>
+        <v>3</v>
+      </c>
+      <c r="I81" s="5">
+        <v>39000040</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="E82" s="5">
-        <v>2580</v>
+        <f>1400+10</f>
+        <v>1410</v>
       </c>
       <c r="F82" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="H82" s="5">
         <v>3</v>
       </c>
       <c r="I82" s="5">
-        <v>39000040</v>
+        <v>39000048</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="E83" s="5">
-        <f>1400+10</f>
-        <v>1410</v>
+        <f>450-30</f>
+        <v>420</v>
       </c>
       <c r="F83" s="5">
-        <v>2</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G83" s="5">
+        <v>39000040</v>
       </c>
       <c r="H83" s="5">
-        <v>3</v>
-      </c>
-      <c r="I83" s="5">
-        <v>39000048</v>
+        <v>12</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="E84" s="5">
         <f>450-30</f>
@@ -3859,46 +3878,45 @@
     </row>
     <row r="85" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E85" s="5">
-        <f>450-30</f>
-        <v>420</v>
+        <v>1810</v>
       </c>
       <c r="F85" s="5">
-        <v>3</v>
-      </c>
-      <c r="G85" s="5">
-        <v>39000040</v>
+        <v>2</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="H85" s="5">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E86" s="5">
         <v>1810</v>
@@ -3918,107 +3936,107 @@
     </row>
     <row r="87" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="E87" s="5">
-        <v>1810</v>
+        <f>1505+15</f>
+        <v>1520</v>
       </c>
       <c r="F87" s="5">
-        <v>2</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G87" s="5">
+        <v>39000040</v>
       </c>
       <c r="H87" s="5">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="E88" s="5">
-        <f>1505+15</f>
-        <v>1520</v>
+        <v>1410</v>
       </c>
       <c r="F88" s="5">
-        <v>3</v>
-      </c>
-      <c r="G88" s="5">
-        <v>39000040</v>
+        <v>2</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="5">
-        <v>12</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>180</v>
+        <v>3</v>
+      </c>
+      <c r="I88" s="5">
+        <v>39000048</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="E89" s="5">
-        <v>1410</v>
+        <v>1355</v>
       </c>
       <c r="F89" s="5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="H89" s="5">
-        <v>3</v>
-      </c>
-      <c r="I89" s="5">
-        <v>39000048</v>
+        <v>7</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E90" s="5">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="F90" s="5">
         <v>3.5</v>
@@ -4030,24 +4048,25 @@
         <v>7</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E91" s="5">
-        <v>1350</v>
+        <f>950+20</f>
+        <v>970</v>
       </c>
       <c r="F91" s="5">
         <v>3.5</v>
@@ -4059,84 +4078,83 @@
         <v>7</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="E92" s="5">
-        <f>950+20</f>
-        <v>970</v>
+        <f>1415+10</f>
+        <v>1425</v>
       </c>
       <c r="F92" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>189</v>
+        <v>3</v>
+      </c>
+      <c r="G92" s="5">
+        <v>39000040</v>
       </c>
       <c r="H92" s="5">
         <v>7</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="E93" s="5">
-        <f>1415+10</f>
-        <v>1425</v>
+        <v>1070</v>
       </c>
       <c r="F93" s="5">
         <v>3</v>
       </c>
       <c r="G93" s="5">
-        <v>39000040</v>
+        <v>39000048</v>
       </c>
       <c r="H93" s="5">
         <v>7</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E94" s="5">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="F94" s="5">
         <v>3</v>
@@ -4148,108 +4166,108 @@
         <v>7</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E95" s="5">
-        <v>1060</v>
+        <v>1130</v>
       </c>
       <c r="F95" s="5">
-        <v>3</v>
-      </c>
-      <c r="G95" s="5">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="H95" s="5">
         <v>7</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E96" s="5">
-        <v>1130</v>
+        <v>2020</v>
       </c>
       <c r="F96" s="5">
         <v>2</v>
       </c>
-      <c r="G96" s="5" t="s">
-        <v>138</v>
+      <c r="G96" s="5">
+        <v>561349000</v>
       </c>
       <c r="H96" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E97" s="5">
-        <v>2020</v>
+        <v>1020</v>
       </c>
       <c r="F97" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G97" s="5">
+        <v>39000048</v>
+      </c>
+      <c r="H97" s="5">
+        <v>2</v>
+      </c>
+      <c r="I97" s="5">
         <v>561349000</v>
-      </c>
-      <c r="H97" s="5">
-        <v>3</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="E98" s="5">
         <v>1020</v>
@@ -4267,47 +4285,47 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E99" s="5">
-        <v>1020</v>
-      </c>
-      <c r="F99" s="5">
-        <v>3</v>
-      </c>
-      <c r="G99" s="5">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E99" s="8">
+        <v>1610</v>
+      </c>
+      <c r="F99" s="8">
+        <v>3</v>
+      </c>
+      <c r="G99" s="8">
         <v>39000048</v>
       </c>
-      <c r="H99" s="5">
-        <v>2</v>
-      </c>
-      <c r="I99" s="5">
+      <c r="H99" s="8">
+        <v>2</v>
+      </c>
+      <c r="I99" s="8">
         <v>561349000</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="E100" s="5">
         <v>1610</v>
@@ -4327,25 +4345,25 @@
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="E101" s="5">
-        <v>1610</v>
+        <v>960</v>
       </c>
       <c r="F101" s="5">
-        <v>3</v>
-      </c>
-      <c r="G101" s="5">
-        <v>39000048</v>
+        <v>5</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H101" s="5">
         <v>2</v>
@@ -4356,16 +4374,16 @@
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E102" s="5">
         <v>960</v>
@@ -4385,25 +4403,26 @@
     </row>
     <row r="103" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="E103" s="5">
-        <v>960</v>
+        <f>1320+5</f>
+        <v>1325</v>
       </c>
       <c r="F103" s="5">
-        <v>5</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G103" s="5">
+        <v>39000048</v>
       </c>
       <c r="H103" s="5">
         <v>2</v>
@@ -4414,32 +4433,32 @@
     </row>
     <row r="104" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E104" s="5">
         <f>1320+5</f>
         <v>1325</v>
       </c>
       <c r="F104" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" s="5">
+        <v>561349000</v>
+      </c>
+      <c r="H104" s="5">
+        <v>3</v>
+      </c>
+      <c r="I104" s="5">
         <v>39000048</v>
-      </c>
-      <c r="H104" s="5">
-        <v>2</v>
-      </c>
-      <c r="I104" s="5">
-        <v>561349000</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4456,63 +4475,63 @@
         <v>61</v>
       </c>
       <c r="E105" s="5">
-        <f>1320+5</f>
-        <v>1325</v>
+        <v>520</v>
       </c>
       <c r="F105" s="5">
         <v>2</v>
       </c>
-      <c r="G105" s="5">
-        <v>561349000</v>
+      <c r="G105" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="H105" s="5">
-        <v>3</v>
-      </c>
-      <c r="I105" s="5">
-        <v>39000048</v>
+        <v>7</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E106" s="5">
-        <v>520</v>
+        <f>1550+5</f>
+        <v>1555</v>
       </c>
       <c r="F106" s="5">
         <v>2</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>138</v>
+      <c r="G106" s="5">
+        <v>561349000</v>
       </c>
       <c r="H106" s="5">
-        <v>7</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="I106" s="5">
+        <v>39000048</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E107" s="5">
         <f>1550+5</f>
@@ -4533,20 +4552,20 @@
     </row>
     <row r="108" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E108" s="5">
-        <f>1550+5</f>
-        <v>1555</v>
+        <f>1320+10</f>
+        <v>1330</v>
       </c>
       <c r="F108" s="5">
         <v>2</v>
@@ -4563,20 +4582,19 @@
     </row>
     <row r="109" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="E109" s="5">
-        <f>1320+10</f>
-        <v>1330</v>
+        <v>920</v>
       </c>
       <c r="F109" s="5">
         <v>2</v>
@@ -4585,27 +4603,28 @@
         <v>561349000</v>
       </c>
       <c r="H109" s="5">
-        <v>3</v>
-      </c>
-      <c r="I109" s="5">
-        <v>39000048</v>
+        <v>5</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="E110" s="5">
-        <v>920</v>
+        <f>920-15</f>
+        <v>905</v>
       </c>
       <c r="F110" s="5">
         <v>2</v>
@@ -4617,51 +4636,50 @@
         <v>5</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="E111" s="5">
-        <f>920-15</f>
-        <v>905</v>
+        <v>1830</v>
       </c>
       <c r="F111" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111" s="5">
+        <v>39000048</v>
+      </c>
+      <c r="H111" s="5">
+        <v>2</v>
+      </c>
+      <c r="I111" s="5">
         <v>561349000</v>
-      </c>
-      <c r="H111" s="5">
-        <v>5</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="E112" s="5">
         <v>1830</v>
@@ -4681,19 +4699,20 @@
     </row>
     <row r="113" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E113" s="5">
-        <v>1830</v>
+        <f>2410+10</f>
+        <v>2420</v>
       </c>
       <c r="F113" s="5">
         <v>3</v>
@@ -4710,20 +4729,19 @@
     </row>
     <row r="114" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="E114" s="5">
-        <f>2410+10</f>
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="F114" s="5">
         <v>3</v>
@@ -4740,45 +4758,45 @@
     </row>
     <row r="115" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="E115" s="5">
-        <v>2410</v>
+        <v>960</v>
       </c>
       <c r="F115" s="5">
-        <v>3</v>
-      </c>
-      <c r="G115" s="5">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="H115" s="5">
-        <v>2</v>
-      </c>
-      <c r="I115" s="5">
-        <v>561349000</v>
+        <v>3</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E116" s="5">
         <v>960</v>
@@ -4798,16 +4816,16 @@
     </row>
     <row r="117" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="E117" s="5">
         <v>960</v>
@@ -4827,16 +4845,16 @@
     </row>
     <row r="118" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="E118" s="5">
         <v>960</v>
@@ -4856,19 +4874,19 @@
     </row>
     <row r="119" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="E119" s="5">
-        <v>960</v>
+        <v>1520</v>
       </c>
       <c r="F119" s="5">
         <v>2</v>
@@ -4885,19 +4903,19 @@
     </row>
     <row r="120" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E120" s="5">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="F120" s="5">
         <v>2</v>
@@ -4914,16 +4932,16 @@
     </row>
     <row r="121" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E121" s="5">
         <v>1525</v>
@@ -4943,16 +4961,16 @@
     </row>
     <row r="122" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="E122" s="5">
         <v>1525</v>
@@ -4972,45 +4990,45 @@
     </row>
     <row r="123" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="E123" s="5">
-        <v>1525</v>
+        <v>1665</v>
       </c>
       <c r="F123" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="H123" s="5">
-        <v>3</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>217</v>
+        <v>2</v>
+      </c>
+      <c r="I123" s="5">
+        <v>561349000</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E124" s="5">
         <v>1665</v>
@@ -5030,16 +5048,16 @@
     </row>
     <row r="125" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E125" s="5">
         <v>1665</v>
@@ -5059,19 +5077,19 @@
     </row>
     <row r="126" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E126" s="5">
-        <v>1665</v>
+        <v>1100</v>
       </c>
       <c r="F126" s="5">
         <v>3</v>
@@ -5088,16 +5106,16 @@
     </row>
     <row r="127" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="E127" s="5">
         <v>1100</v>
@@ -5117,16 +5135,16 @@
     </row>
     <row r="128" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E128" s="5">
         <v>1100</v>
@@ -5146,31 +5164,31 @@
     </row>
     <row r="129" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="E129" s="5">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F129" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="H129" s="5">
-        <v>2</v>
-      </c>
-      <c r="I129" s="5">
-        <v>561349000</v>
+        <v>7</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5187,19 +5205,19 @@
         <v>16</v>
       </c>
       <c r="E130" s="5">
-        <v>300</v>
+        <v>605</v>
       </c>
       <c r="F130" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="H130" s="5">
         <v>7</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5216,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="E131" s="5">
-        <v>605</v>
+        <v>1150</v>
       </c>
       <c r="F131" s="5">
         <v>3</v>
@@ -5233,60 +5251,60 @@
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E132" s="5">
-        <v>1150</v>
+        <v>1610</v>
       </c>
       <c r="F132" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="H132" s="5">
         <v>7</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E133" s="5">
-        <v>1610</v>
+        <v>650</v>
       </c>
       <c r="F133" s="5">
-        <v>2</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G133" s="5">
+        <v>39000048</v>
       </c>
       <c r="H133" s="5">
         <v>7</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5303,33 +5321,33 @@
         <v>115</v>
       </c>
       <c r="E134" s="5">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="F134" s="5">
-        <v>3</v>
-      </c>
-      <c r="G134" s="5">
-        <v>39000048</v>
+        <v>7</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="H134" s="5">
         <v>7</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E135" s="5">
         <v>610</v>
@@ -5338,42 +5356,42 @@
         <v>7</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H135" s="5">
         <v>7</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="E136" s="5">
-        <v>610</v>
+        <v>1810</v>
       </c>
       <c r="F136" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="H136" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5381,45 +5399,45 @@
         <v>54</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="E137" s="5">
-        <v>1810</v>
+        <v>500</v>
       </c>
       <c r="F137" s="5">
-        <v>2</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G137" s="5">
+        <v>39000048</v>
       </c>
       <c r="H137" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E138" s="5">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="F138" s="5">
         <v>3</v>
@@ -5431,24 +5449,24 @@
         <v>7</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E139" s="5">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="F139" s="5">
         <v>3</v>
@@ -5460,7 +5478,7 @@
         <v>7</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5477,95 +5495,95 @@
         <v>66</v>
       </c>
       <c r="E140" s="5">
-        <v>445</v>
+        <f>2220-140</f>
+        <v>2080</v>
       </c>
       <c r="F140" s="5">
-        <v>3</v>
-      </c>
-      <c r="G140" s="5">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H140" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="E141" s="5">
-        <f>2220-140</f>
-        <v>2080</v>
+        <v>360</v>
       </c>
       <c r="F141" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="H141" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E142" s="5">
-        <v>360</v>
+        <v>2020</v>
       </c>
       <c r="F142" s="5">
-        <v>5</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>160</v>
+        <v>2</v>
+      </c>
+      <c r="G142" s="5">
+        <v>561349000</v>
       </c>
       <c r="H142" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>242</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E143" s="5">
-        <v>2020</v>
+        <v>1825</v>
       </c>
       <c r="F143" s="5">
         <v>2</v>
@@ -5577,21 +5595,21 @@
         <v>3</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E144" s="5">
         <v>1825</v>
@@ -5611,16 +5629,16 @@
     </row>
     <row r="145" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="E145" s="5">
         <v>1825</v>
@@ -5640,16 +5658,16 @@
     </row>
     <row r="146" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="E146" s="5">
         <v>1825</v>
@@ -5669,45 +5687,46 @@
     </row>
     <row r="147" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E147" s="5">
-        <v>1825</v>
+        <f>2400+10</f>
+        <v>2410</v>
       </c>
       <c r="F147" s="5">
-        <v>2</v>
-      </c>
-      <c r="G147" s="5">
+        <v>3</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H147" s="5">
+        <v>2</v>
+      </c>
+      <c r="I147" s="5">
         <v>561349000</v>
-      </c>
-      <c r="H147" s="5">
-        <v>3</v>
-      </c>
-      <c r="I147" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E148" s="5">
         <f>2400+10</f>
@@ -5728,46 +5747,46 @@
     </row>
     <row r="149" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E149" s="5">
         <f>2400+10</f>
         <v>2410</v>
       </c>
       <c r="F149" s="5">
-        <v>3</v>
-      </c>
-      <c r="G149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G149" s="5">
+        <v>561349000</v>
+      </c>
+      <c r="H149" s="5">
+        <v>3</v>
+      </c>
+      <c r="I149" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="H149" s="5">
-        <v>2</v>
-      </c>
-      <c r="I149" s="5">
-        <v>561349000</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E150" s="5">
         <f>2400+10</f>
@@ -5788,50 +5807,50 @@
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E151" s="5">
-        <f>2400+10</f>
-        <v>2410</v>
+        <f>1060+35</f>
+        <v>1095</v>
       </c>
       <c r="F151" s="5">
-        <v>2</v>
-      </c>
-      <c r="G151" s="5">
-        <v>561349000</v>
+        <v>3</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="H151" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E152" s="5">
-        <f>1060+35</f>
-        <v>1095</v>
+        <f>1840+5</f>
+        <v>1845</v>
       </c>
       <c r="F152" s="5">
         <v>3</v>
@@ -5840,84 +5859,84 @@
         <v>244</v>
       </c>
       <c r="H152" s="5">
-        <v>7</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>251</v>
+        <v>2</v>
+      </c>
+      <c r="I152" s="5">
+        <v>561349000</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="E153" s="5">
-        <f>1840+5</f>
-        <v>1845</v>
+        <f>1825+25</f>
+        <v>1850</v>
       </c>
       <c r="F153" s="5">
         <v>3</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="G153" s="5">
+        <v>561349000</v>
+      </c>
+      <c r="H153" s="5">
+        <v>3</v>
+      </c>
+      <c r="I153" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="H153" s="5">
-        <v>2</v>
-      </c>
-      <c r="I153" s="5">
-        <v>561349000</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="E154" s="5">
-        <f>1825+25</f>
-        <v>1850</v>
+        <f>1650+35</f>
+        <v>1685</v>
       </c>
       <c r="F154" s="5">
         <v>3</v>
       </c>
-      <c r="G154" s="5">
-        <v>561349000</v>
+      <c r="G154" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="H154" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E155" s="5">
         <f>1650+35</f>
@@ -5938,55 +5957,55 @@
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E156" s="5">
-        <f>1650+35</f>
-        <v>1685</v>
+        <v>3130</v>
       </c>
       <c r="F156" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="H156" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E157" s="5">
-        <v>3130</v>
+        <f>4680+50</f>
+        <v>4730</v>
       </c>
       <c r="F157" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="H157" s="5">
         <v>3</v>
@@ -5997,20 +6016,20 @@
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="E158" s="5">
-        <f>4680+50</f>
-        <v>4730</v>
+        <f>2115+20</f>
+        <v>2135</v>
       </c>
       <c r="F158" s="5">
         <v>3</v>
@@ -6019,54 +6038,53 @@
         <v>163</v>
       </c>
       <c r="H158" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="E159" s="5">
-        <f>2115+20</f>
-        <v>2135</v>
+        <v>1470</v>
       </c>
       <c r="F159" s="5">
         <v>3</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="H159" s="5">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E160" s="5">
         <v>1470</v>
@@ -6086,48 +6104,49 @@
     </row>
     <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E161" s="5">
-        <v>1470</v>
+        <v>1035</v>
       </c>
       <c r="F161" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H161" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E162" s="5">
-        <v>1035</v>
+        <f>390+100</f>
+        <v>490</v>
       </c>
       <c r="F162" s="5">
         <v>2</v>
@@ -6136,10 +6155,10 @@
         <v>62</v>
       </c>
       <c r="H162" s="5">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6156,20 +6175,19 @@
         <v>66</v>
       </c>
       <c r="E163" s="5">
-        <f>390+100</f>
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="F163" s="5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H163" s="5">
         <v>7</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6186,49 +6204,49 @@
         <v>66</v>
       </c>
       <c r="E164" s="5">
-        <v>560</v>
+        <f>285+15+100</f>
+        <v>400</v>
       </c>
       <c r="F164" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="H164" s="5">
         <v>7</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E165" s="5">
-        <f>285+15+100</f>
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="F165" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="H165" s="5">
         <v>7</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6245,19 +6263,20 @@
         <v>29</v>
       </c>
       <c r="E166" s="5">
-        <v>625</v>
+        <f>230+100</f>
+        <v>330</v>
       </c>
       <c r="F166" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="H166" s="5">
         <v>7</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6274,14 +6293,13 @@
         <v>29</v>
       </c>
       <c r="E167" s="5">
-        <f>230+100</f>
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="F167" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H167" s="5">
         <v>7</v>
@@ -6292,89 +6310,89 @@
     </row>
     <row r="168" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E168" s="5">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="F168" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H168" s="5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E169" s="5">
         <v>185</v>
       </c>
       <c r="F169" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="5">
+        <v>3</v>
+      </c>
+      <c r="I169" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="H169" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E170" s="5">
-        <v>185</v>
+        <v>480</v>
       </c>
       <c r="F170" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H170" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6391,19 +6409,19 @@
         <v>38</v>
       </c>
       <c r="E171" s="5">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="F171" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H171" s="5">
         <v>11</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6420,63 +6438,64 @@
         <v>38</v>
       </c>
       <c r="E172" s="5">
-        <v>310</v>
+        <f>425+100</f>
+        <v>525</v>
       </c>
       <c r="F172" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H172" s="5">
         <v>11</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="E173" s="5">
-        <f>425+100</f>
-        <v>525</v>
+        <f>730+100</f>
+        <v>830</v>
       </c>
       <c r="F173" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="H173" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="E174" s="5">
         <f>730+100</f>
@@ -6492,25 +6511,24 @@
         <v>7</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E175" s="5">
-        <f>730+100</f>
-        <v>830</v>
+        <v>190</v>
       </c>
       <c r="F175" s="5">
         <v>2</v>
@@ -6519,24 +6537,24 @@
         <v>62</v>
       </c>
       <c r="H175" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>259</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="E176" s="5">
         <v>190</v>
@@ -6556,45 +6574,46 @@
     </row>
     <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E177" s="5">
-        <v>190</v>
+        <f>1130+100</f>
+        <v>1230</v>
       </c>
       <c r="F177" s="5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H177" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E178" s="5">
         <f>1130+100</f>
@@ -6610,51 +6629,50 @@
         <v>7</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E179" s="5">
-        <f>1130+100</f>
-        <v>1230</v>
+        <v>220</v>
       </c>
       <c r="F179" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H179" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>261</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="E180" s="5">
         <v>220</v>
@@ -6674,45 +6692,45 @@
     </row>
     <row r="181" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="E181" s="5">
-        <v>220</v>
+        <v>1045</v>
       </c>
       <c r="F181" s="5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H181" s="5">
-        <v>3</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>92</v>
+        <v>2</v>
+      </c>
+      <c r="I181" s="5">
+        <v>561349001</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E182" s="5">
         <v>1045</v>
@@ -6732,19 +6750,19 @@
     </row>
     <row r="183" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="E183" s="5">
-        <v>1045</v>
+        <v>670</v>
       </c>
       <c r="F183" s="5">
         <v>3.5</v>
@@ -6753,62 +6771,62 @@
         <v>13</v>
       </c>
       <c r="H183" s="5">
-        <v>2</v>
-      </c>
-      <c r="I183" s="5">
-        <v>561349001</v>
+        <v>7</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="E184" s="5">
-        <v>670</v>
+        <v>370</v>
       </c>
       <c r="F184" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G184" s="5">
+        <v>561349001</v>
       </c>
       <c r="H184" s="5">
         <v>7</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E185" s="5">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="F185" s="5">
-        <v>2</v>
-      </c>
-      <c r="G185" s="5">
-        <v>561349001</v>
+        <v>3</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="H185" s="5">
         <v>7</v>
@@ -6819,19 +6837,19 @@
     </row>
     <row r="186" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="E186" s="5">
-        <v>285</v>
+        <v>950</v>
       </c>
       <c r="F186" s="5">
         <v>3</v>
@@ -6840,36 +6858,36 @@
         <v>266</v>
       </c>
       <c r="H186" s="5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E187" s="5">
-        <v>950</v>
+        <v>425</v>
       </c>
       <c r="F187" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="H187" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>13</v>
@@ -6877,16 +6895,16 @@
     </row>
     <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E188" s="5">
         <v>425</v>
@@ -6906,16 +6924,16 @@
     </row>
     <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E189" s="5">
         <v>425</v>
@@ -6924,7 +6942,7 @@
         <v>5</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H189" s="5">
         <v>3</v>
@@ -6935,45 +6953,45 @@
     </row>
     <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E190" s="5">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="F190" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H190" s="5">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="E191" s="5">
         <v>185</v>
@@ -6993,19 +7011,19 @@
     </row>
     <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="E192" s="5">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="F192" s="5">
         <v>3.5</v>
@@ -7014,24 +7032,24 @@
         <v>25</v>
       </c>
       <c r="H192" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E193" s="5">
         <v>158</v>
@@ -7051,16 +7069,16 @@
     </row>
     <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E194" s="5">
         <v>158</v>
@@ -7080,16 +7098,16 @@
     </row>
     <row r="195" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E195" s="5">
         <v>158</v>
@@ -7109,31 +7127,31 @@
     </row>
     <row r="196" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E196" s="5">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="F196" s="5">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="G196" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H196" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I196" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H196" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I196" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7150,60 +7168,60 @@
         <v>38</v>
       </c>
       <c r="E197" s="5">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="F197" s="5">
         <v>7</v>
       </c>
-      <c r="G197" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="G197" s="5"/>
       <c r="H197" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E198" s="5">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F198" s="5">
-        <v>7</v>
-      </c>
-      <c r="G198" s="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H198" s="5">
         <v>5</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E199" s="5">
         <v>155</v>
@@ -7218,73 +7236,79 @@
         <v>5</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
+      <c r="A200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C200" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E200" s="5">
-        <v>50</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G200" s="5"/>
+        <v>425</v>
+      </c>
+      <c r="F200" s="5">
+        <v>5</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H200" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E201" s="5">
-        <v>155</v>
+        <v>425</v>
       </c>
       <c r="F201" s="5">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="H201" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E202" s="5">
         <v>425</v>
@@ -7293,7 +7317,7 @@
         <v>5</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H202" s="5">
         <v>3</v>
@@ -7304,74 +7328,74 @@
     </row>
     <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E203" s="5">
-        <v>425</v>
+        <v>158</v>
       </c>
       <c r="F203" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H203" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E204" s="5">
-        <v>425</v>
+        <v>158</v>
       </c>
       <c r="F204" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H204" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E205" s="5">
         <v>158</v>
@@ -7391,16 +7415,16 @@
     </row>
     <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E206" s="5">
         <v>158</v>
@@ -7420,177 +7444,119 @@
     </row>
     <row r="207" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E207" s="5">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="F207" s="5">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="G207" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H207" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I207" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H207" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I207" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E208" s="5">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F208" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G208" s="5"/>
       <c r="H208" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E209" s="5">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="F209" s="5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H209" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E210" s="5">
         <v>175</v>
       </c>
       <c r="F210" s="5">
-        <v>7</v>
-      </c>
-      <c r="G210" s="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="H210" s="5">
         <v>5</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E211" s="5">
-        <v>175</v>
-      </c>
-      <c r="F211" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H211" s="5">
-        <v>5</v>
-      </c>
-      <c r="I211" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E212" s="5">
-        <v>175</v>
-      </c>
-      <c r="F212" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H212" s="5">
-        <v>5</v>
-      </c>
-      <c r="I212" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gad-shaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129B9EC-C5B1-4BF8-89B8-80E4953DC6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4820354-F2EC-4C56-9B76-A971BB96CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="272">
   <si>
     <t>Wire No.</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">41 , 0.160 , 2.80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black </t>
   </si>
   <si>
     <t>SFG00391</t>
@@ -986,6 +983,9 @@
   </si>
   <si>
     <t>41. 0160 , 2.00</t>
+  </si>
+  <si>
+    <t>0039000048</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,6 +1139,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="D101" zoomScale="131" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,7 +1440,7 @@
     <col min="2" max="2" width="41.88671875" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="7" max="7" width="32.21875" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" style="13" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1453,7 +1463,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1482,7 +1492,7 @@
       <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5">
@@ -1511,7 +1521,7 @@
       <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="5">
@@ -1540,7 +1550,7 @@
       <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="5">
@@ -1569,7 +1579,7 @@
       <c r="F5" s="5">
         <v>3.5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="5">
@@ -1598,7 +1608,7 @@
       <c r="F6" s="5">
         <v>3.5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="5">
@@ -1627,7 +1637,7 @@
       <c r="F7" s="5">
         <v>3.5</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="5">
@@ -1656,7 +1666,7 @@
       <c r="F8" s="5">
         <v>3.5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="5">
@@ -1685,7 +1695,7 @@
       <c r="F9" s="5">
         <v>7</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="5">
@@ -1714,7 +1724,7 @@
       <c r="F10" s="5">
         <v>7</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="5">
         <v>5</v>
       </c>
@@ -1741,7 +1751,7 @@
       <c r="F11" s="5">
         <v>3.5</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="5">
@@ -1770,7 +1780,7 @@
       <c r="F12" s="5">
         <v>3.5</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="5">
@@ -1799,7 +1809,7 @@
       <c r="F13" s="5">
         <v>3.5</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5">
@@ -1828,7 +1838,7 @@
       <c r="F14" s="5">
         <v>3.5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="5">
@@ -1857,7 +1867,7 @@
       <c r="F15" s="5">
         <v>3.5</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="5">
@@ -1886,7 +1896,7 @@
       <c r="F16" s="5">
         <v>3.5</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="5">
@@ -1916,7 +1926,7 @@
       <c r="F17" s="5">
         <v>2</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="5">
@@ -1946,7 +1956,7 @@
       <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="5">
@@ -1975,7 +1985,7 @@
       <c r="F19" s="5">
         <v>2</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H19" s="5">
@@ -2005,7 +2015,7 @@
       <c r="F20" s="5">
         <v>2</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H20" s="5">
@@ -2034,7 +2044,7 @@
       <c r="F21" s="5">
         <v>3.5</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="5">
@@ -2063,7 +2073,7 @@
       <c r="F22" s="5">
         <v>3.5</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="5">
@@ -2092,7 +2102,7 @@
       <c r="F23" s="5">
         <v>3.5</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="5">
@@ -2121,7 +2131,7 @@
       <c r="F24" s="5">
         <v>3.5</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="5">
@@ -2150,7 +2160,7 @@
       <c r="F25" s="5">
         <v>3.5</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="5">
@@ -2161,36 +2171,47 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5">
-        <v>365</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+        <f>1340+20+10+10</f>
+        <v>1380</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H26" s="5">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E27" s="5">
         <f>1340+20+10+10</f>
@@ -2199,49 +2220,48 @@
       <c r="F27" s="5">
         <v>3</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="5">
         <v>4.8</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E28" s="5">
-        <f>1340+20+10+10</f>
-        <v>1380</v>
+        <v>950</v>
       </c>
       <c r="F28" s="5">
-        <v>3</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H28" s="5">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>88</v>
@@ -2250,22 +2270,22 @@
         <v>51</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5">
-        <v>950</v>
+        <v>390</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H29" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2273,7 +2293,7 @@
         <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>51</v>
@@ -2282,13 +2302,13 @@
         <v>66</v>
       </c>
       <c r="E30" s="5">
-        <v>390</v>
+        <v>560</v>
       </c>
       <c r="F30" s="5">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H30" s="5">
         <v>7</v>
@@ -2302,7 +2322,7 @@
         <v>64</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>51</v>
@@ -2311,57 +2331,57 @@
         <v>66</v>
       </c>
       <c r="E31" s="5">
-        <v>560</v>
+        <f>285+15</f>
+        <v>300</v>
       </c>
       <c r="F31" s="5">
         <v>3</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>13</v>
+      <c r="G31" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="H31" s="5">
         <v>7</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E32" s="5">
-        <f>285+15</f>
-        <v>300</v>
+        <v>625</v>
       </c>
       <c r="F32" s="5">
         <v>3</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>92</v>
+      <c r="G32" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H32" s="5">
         <v>7</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>51</v>
@@ -2370,13 +2390,13 @@
         <v>29</v>
       </c>
       <c r="E33" s="5">
-        <v>625</v>
+        <v>230</v>
       </c>
       <c r="F33" s="5">
         <v>3</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>13</v>
+      <c r="G33" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="H33" s="5">
         <v>7</v>
@@ -2387,10 +2407,10 @@
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>51</v>
@@ -2399,53 +2419,53 @@
         <v>29</v>
       </c>
       <c r="E34" s="5">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="F34" s="5">
-        <v>3</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>92</v>
+        <v>2</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H34" s="5">
         <v>7</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E35" s="5">
-        <v>325</v>
+        <v>185</v>
       </c>
       <c r="F35" s="5">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="H35" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>97</v>
@@ -2454,7 +2474,7 @@
         <v>51</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E36" s="5">
         <v>185</v>
@@ -2462,144 +2482,144 @@
       <c r="F36" s="5">
         <v>3</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>92</v>
+      <c r="G36" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H36" s="5">
         <v>3</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5">
-        <v>185</v>
+        <v>480</v>
       </c>
       <c r="F37" s="5">
-        <v>3</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>13</v>
+        <v>3.5</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="H37" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="5">
-        <v>480</v>
+        <v>305</v>
       </c>
       <c r="F38" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>102</v>
+        <v>7</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="H38" s="5">
         <v>11</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5">
-        <v>305</v>
+        <v>425</v>
       </c>
       <c r="F39" s="5">
-        <v>7</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="H39" s="5">
         <v>11</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E40" s="5">
-        <v>425</v>
+        <v>730</v>
       </c>
       <c r="F40" s="5">
-        <v>5</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H40" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="E41" s="5">
         <v>730</v>
@@ -2607,7 +2627,7 @@
       <c r="F41" s="5">
         <v>2</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H41" s="5">
@@ -2619,45 +2639,45 @@
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E42" s="5">
-        <v>730</v>
+        <v>190</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H42" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E43" s="5">
         <v>190</v>
@@ -2665,57 +2685,57 @@
       <c r="F43" s="5">
         <v>2</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="5">
         <v>3</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E44" s="5">
-        <v>190</v>
+        <v>1130</v>
       </c>
       <c r="F44" s="5">
-        <v>2</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H44" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E45" s="5">
         <v>1130</v>
@@ -2723,7 +2743,7 @@
       <c r="F45" s="5">
         <v>3</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="5">
@@ -2735,132 +2755,132 @@
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E46" s="5">
-        <v>1130</v>
+        <v>220</v>
       </c>
       <c r="F46" s="5">
-        <v>3</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H46" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="E47" s="5">
-        <v>220</v>
+        <v>850</v>
       </c>
       <c r="F47" s="5">
-        <v>2</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H47" s="5">
         <v>3</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="E48" s="5">
-        <v>850</v>
+        <v>220</v>
       </c>
       <c r="F48" s="5">
-        <v>3</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H48" s="5">
         <v>3</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E49" s="5">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F49" s="5">
-        <v>2</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>62</v>
+        <v>3.5</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H49" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E50" s="5">
         <v>115</v>
@@ -2868,28 +2888,28 @@
       <c r="F50" s="5">
         <v>3.5</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="5">
         <v>3.5</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E51" s="5">
         <v>115</v>
@@ -2897,214 +2917,214 @@
       <c r="F51" s="5">
         <v>3.5</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="5">
         <v>3.5</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E52" s="5">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="F52" s="5">
         <v>3.5</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>13</v>
+      <c r="G52" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="H52" s="5">
         <v>3.5</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="E53" s="5">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="F53" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H53" s="5">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="D54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="5">
+        <v>12</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="5">
+        <v>5</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="E54" s="5">
-        <v>980</v>
-      </c>
-      <c r="F54" s="5">
-        <v>5</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="5">
-        <v>11</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="E55" s="5">
-        <v>1200</v>
+        <v>1810</v>
       </c>
       <c r="F55" s="5">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H55" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E56" s="5">
-        <v>1810</v>
+        <v>2650</v>
       </c>
       <c r="F56" s="5">
-        <v>2</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>138</v>
+        <v>3.5</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="H56" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>124</v>
+        <v>3</v>
+      </c>
+      <c r="I56" s="5">
+        <v>39000040</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="E57" s="5">
-        <v>2650</v>
+        <v>625</v>
       </c>
       <c r="F57" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="11">
+        <v>39000040</v>
+      </c>
+      <c r="H57" s="5">
+        <v>11</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="H57" s="5">
-        <v>3</v>
-      </c>
-      <c r="I57" s="5">
-        <v>39000040</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E58" s="5">
-        <v>625</v>
+        <v>1610</v>
       </c>
       <c r="F58" s="5">
-        <v>3</v>
-      </c>
-      <c r="G58" s="5">
-        <v>39000040</v>
+        <v>2</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H58" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>142</v>
@@ -3112,146 +3132,147 @@
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="E59" s="5">
-        <v>1610</v>
+        <v>650</v>
       </c>
       <c r="F59" s="5">
-        <v>2</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G59" s="11">
+        <v>39000048</v>
       </c>
       <c r="H59" s="5">
         <v>7</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E60" s="5">
-        <v>650</v>
+        <f>1400+10</f>
+        <v>1410</v>
       </c>
       <c r="F60" s="5">
-        <v>3</v>
-      </c>
-      <c r="G60" s="5">
+        <v>2</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="5">
+        <v>3</v>
+      </c>
+      <c r="I60" s="5">
         <v>39000048</v>
-      </c>
-      <c r="H60" s="5">
-        <v>7</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E61" s="5">
         <f>1400+10</f>
         <v>1410</v>
       </c>
       <c r="F61" s="5">
-        <v>2</v>
-      </c>
-      <c r="G61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="11">
+        <v>39000048</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="H61" s="5">
-        <v>3</v>
-      </c>
-      <c r="I61" s="5">
-        <v>39000048</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="E62" s="5">
-        <f>1400+10</f>
-        <v>1410</v>
+        <v>1230</v>
       </c>
       <c r="F62" s="5">
-        <v>3</v>
-      </c>
-      <c r="G62" s="5">
-        <v>39000048</v>
+        <v>3.5</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="H62" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="E63" s="5">
-        <v>1230</v>
+        <f>2220-140</f>
+        <v>2080</v>
       </c>
       <c r="F63" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>141</v>
+        <v>2</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H63" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>151</v>
@@ -3259,115 +3280,114 @@
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E64" s="5">
-        <f>2220-140</f>
-        <v>2080</v>
+        <f>1320+5</f>
+        <v>1325</v>
       </c>
       <c r="F64" s="5">
-        <v>2</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G64" s="11">
+        <v>39000048</v>
       </c>
       <c r="H64" s="5">
-        <v>3</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>152</v>
+        <v>2</v>
+      </c>
+      <c r="I64" s="5">
+        <v>561349000</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="5">
+        <v>950</v>
+      </c>
+      <c r="F65" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="5">
-        <f>1320+5</f>
-        <v>1325</v>
-      </c>
-      <c r="F65" s="5">
-        <v>3</v>
-      </c>
-      <c r="G65" s="5">
-        <v>39000048</v>
-      </c>
       <c r="H65" s="5">
-        <v>2</v>
-      </c>
-      <c r="I65" s="5">
-        <v>561349000</v>
+        <v>11</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E66" s="5">
-        <v>950</v>
+        <f>2590+10</f>
+        <v>2600</v>
       </c>
       <c r="F66" s="5">
         <v>3.5</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>154</v>
+      <c r="G66" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="H66" s="5">
-        <v>11</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>155</v>
+        <v>3</v>
+      </c>
+      <c r="I66" s="5">
+        <v>39000048</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="E67" s="5">
-        <f>2590+10</f>
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="F67" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>141</v>
+        <v>2</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H67" s="5">
         <v>3</v>
@@ -3378,114 +3398,114 @@
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="E68" s="5">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="F68" s="5">
-        <v>2</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>62</v>
+        <v>3.5</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="H68" s="5">
-        <v>3</v>
-      </c>
-      <c r="I68" s="5">
-        <v>39000048</v>
+        <v>5</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="E69" s="5">
-        <v>1120</v>
+        <f>660+5</f>
+        <v>665</v>
       </c>
       <c r="F69" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>154</v>
+        <v>7</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="H69" s="5">
-        <v>5</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>160</v>
+        <v>3</v>
+      </c>
+      <c r="I69" s="5">
+        <v>39000048</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="E70" s="5">
-        <f>660+5</f>
-        <v>665</v>
+        <f>1320-15</f>
+        <v>1305</v>
       </c>
       <c r="F70" s="5">
-        <v>7</v>
-      </c>
-      <c r="G70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>162</v>
       </c>
       <c r="H70" s="5">
-        <v>3</v>
-      </c>
-      <c r="I70" s="5">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E71" s="5">
-        <f>1320-15</f>
         <v>1305</v>
       </c>
       <c r="F71" s="5">
         <v>3</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>163</v>
+      <c r="G71" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="H71" s="5">
         <v>2</v>
@@ -3496,87 +3516,88 @@
     </row>
     <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="E72" s="5">
-        <v>1305</v>
+        <v>1235</v>
       </c>
       <c r="F72" s="5">
-        <v>3</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>163</v>
+        <v>3.5</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="H72" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E73" s="5">
-        <v>1235</v>
+        <f>1280-300</f>
+        <v>980</v>
       </c>
       <c r="F73" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>141</v>
+        <v>3</v>
+      </c>
+      <c r="G73" s="11">
+        <v>39000040</v>
       </c>
       <c r="H73" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="E74" s="5">
-        <f>1280-300</f>
-        <v>980</v>
+        <f>220+15</f>
+        <v>235</v>
       </c>
       <c r="F74" s="5">
-        <v>3</v>
-      </c>
-      <c r="G74" s="5">
-        <v>39000040</v>
+        <v>5</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H74" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>170</v>
@@ -3584,29 +3605,28 @@
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="E75" s="5">
-        <f>220+15</f>
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="F75" s="5">
-        <v>5</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G75" s="11">
+        <v>39000040</v>
       </c>
       <c r="H75" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>171</v>
@@ -3614,60 +3634,60 @@
     </row>
     <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E76" s="5">
-        <v>625</v>
+        <v>855</v>
       </c>
       <c r="F76" s="5">
-        <v>3</v>
-      </c>
-      <c r="G76" s="5">
-        <v>39000040</v>
+        <v>3.5</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="H76" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="E77" s="5">
-        <v>855</v>
+        <v>2200</v>
       </c>
       <c r="F77" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>141</v>
+        <v>3</v>
+      </c>
+      <c r="G77" s="11">
+        <v>39000040</v>
       </c>
       <c r="H77" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3675,21 +3695,21 @@
         <v>35</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="E78" s="5">
-        <v>2200</v>
+        <v>780</v>
       </c>
       <c r="F78" s="5">
         <v>3</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="11">
         <v>39000040</v>
       </c>
       <c r="H78" s="5">
@@ -3701,133 +3721,134 @@
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="E79" s="5">
-        <v>780</v>
+        <v>890</v>
       </c>
       <c r="F79" s="5">
         <v>3</v>
       </c>
-      <c r="G79" s="5">
-        <v>39000040</v>
+      <c r="G79" s="11">
+        <v>39000048</v>
       </c>
       <c r="H79" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E80" s="5">
-        <v>890</v>
+        <v>2580</v>
       </c>
       <c r="F80" s="5">
-        <v>3</v>
-      </c>
-      <c r="G80" s="5">
-        <v>39000048</v>
+        <v>3.5</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="H80" s="5">
-        <v>7</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>171</v>
+        <v>3</v>
+      </c>
+      <c r="I80" s="5">
+        <v>39000040</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="E81" s="5">
-        <v>2580</v>
+        <f>1400+10</f>
+        <v>1410</v>
       </c>
       <c r="F81" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>141</v>
+        <v>2</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H81" s="5">
         <v>3</v>
       </c>
       <c r="I81" s="5">
-        <v>39000040</v>
+        <v>39000048</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="5">
+        <f>450-30</f>
+        <v>420</v>
+      </c>
+      <c r="F82" s="5">
+        <v>3</v>
+      </c>
+      <c r="G82" s="11">
+        <v>39000040</v>
+      </c>
+      <c r="H82" s="5">
+        <v>12</v>
+      </c>
+      <c r="I82" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="E82" s="5">
-        <f>1400+10</f>
-        <v>1410</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3</v>
-      </c>
-      <c r="I82" s="5">
-        <v>39000048</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="E83" s="5">
         <f>450-30</f>
@@ -3836,52 +3857,51 @@
       <c r="F83" s="5">
         <v>3</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="11">
         <v>39000040</v>
       </c>
       <c r="H83" s="5">
         <v>12</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>183</v>
       </c>
       <c r="E84" s="5">
-        <f>450-30</f>
-        <v>420</v>
+        <v>1810</v>
       </c>
       <c r="F84" s="5">
-        <v>3</v>
-      </c>
-      <c r="G84" s="5">
-        <v>39000040</v>
+        <v>2</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H84" s="5">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>51</v>
@@ -3895,125 +3915,125 @@
       <c r="F85" s="5">
         <v>2</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>138</v>
+      <c r="G85" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H85" s="5">
         <v>3.5</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="E86" s="5">
-        <v>1810</v>
+        <f>1505+15</f>
+        <v>1520</v>
       </c>
       <c r="F86" s="5">
-        <v>2</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G86" s="11">
+        <v>39000040</v>
       </c>
       <c r="H86" s="5">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="E87" s="5">
-        <f>1505+15</f>
-        <v>1520</v>
+        <v>1410</v>
       </c>
       <c r="F87" s="5">
-        <v>3</v>
-      </c>
-      <c r="G87" s="5">
-        <v>39000040</v>
+        <v>2</v>
+      </c>
+      <c r="G87" s="11">
+        <v>39000048</v>
       </c>
       <c r="H87" s="5">
-        <v>12</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>180</v>
+        <v>3</v>
+      </c>
+      <c r="I87" s="5">
+        <v>39000048</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D88" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1355</v>
+      </c>
+      <c r="F88" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G88" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E88" s="5">
-        <v>1410</v>
-      </c>
-      <c r="F88" s="5">
-        <v>2</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="H88" s="5">
-        <v>3</v>
-      </c>
-      <c r="I88" s="5">
-        <v>39000048</v>
+        <v>7</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E89" s="5">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="F89" s="5">
         <v>3.5</v>
       </c>
-      <c r="G89" s="5" t="s">
-        <v>189</v>
+      <c r="G89" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="H89" s="5">
         <v>7</v>
@@ -4024,85 +4044,85 @@
     </row>
     <row r="90" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E90" s="5">
-        <v>1350</v>
+        <f>950+20</f>
+        <v>970</v>
       </c>
       <c r="F90" s="5">
         <v>3.5</v>
       </c>
-      <c r="G90" s="5" t="s">
-        <v>189</v>
+      <c r="G90" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="H90" s="5">
         <v>7</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="E91" s="5">
-        <f>950+20</f>
-        <v>970</v>
+        <f>1415+10</f>
+        <v>1425</v>
       </c>
       <c r="F91" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>189</v>
+        <v>3</v>
+      </c>
+      <c r="G91" s="11">
+        <v>39000040</v>
       </c>
       <c r="H91" s="5">
         <v>7</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="E92" s="5">
-        <f>1415+10</f>
-        <v>1425</v>
+        <v>1070</v>
       </c>
       <c r="F92" s="5">
         <v>3</v>
       </c>
-      <c r="G92" s="5">
-        <v>39000040</v>
+      <c r="G92" s="11">
+        <v>39000048</v>
       </c>
       <c r="H92" s="5">
         <v>7</v>
@@ -4113,24 +4133,24 @@
     </row>
     <row r="93" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E93" s="5">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="F93" s="5">
         <v>3</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="11">
         <v>39000048</v>
       </c>
       <c r="H93" s="5">
@@ -4142,25 +4162,25 @@
     </row>
     <row r="94" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E94" s="5">
-        <v>1060</v>
+        <v>1130</v>
       </c>
       <c r="F94" s="5">
-        <v>3</v>
-      </c>
-      <c r="G94" s="5">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H94" s="5">
         <v>7</v>
@@ -4171,74 +4191,74 @@
     </row>
     <row r="95" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E95" s="5">
-        <v>1130</v>
+        <v>2020</v>
       </c>
       <c r="F95" s="5">
         <v>2</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>138</v>
+      <c r="G95" s="11">
+        <v>561349000</v>
       </c>
       <c r="H95" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="E96" s="5">
-        <v>2020</v>
+        <v>1020</v>
       </c>
       <c r="F96" s="5">
-        <v>2</v>
-      </c>
-      <c r="G96" s="5">
+        <v>3</v>
+      </c>
+      <c r="G96" s="11">
+        <v>39000048</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5">
         <v>561349000</v>
-      </c>
-      <c r="H96" s="5">
-        <v>3</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="E97" s="5">
         <v>1020</v>
@@ -4246,7 +4266,7 @@
       <c r="F97" s="5">
         <v>3</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="11">
         <v>39000048</v>
       </c>
       <c r="H97" s="5">
@@ -4256,85 +4276,85 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E98" s="5">
-        <v>1020</v>
-      </c>
-      <c r="F98" s="5">
-        <v>3</v>
-      </c>
-      <c r="G98" s="5">
+    <row r="98" spans="1:9" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="8">
+        <v>1610</v>
+      </c>
+      <c r="F98" s="8">
+        <v>3</v>
+      </c>
+      <c r="G98" s="12">
         <v>39000048</v>
       </c>
-      <c r="H98" s="5">
-        <v>2</v>
-      </c>
-      <c r="I98" s="5">
+      <c r="H98" s="8">
+        <v>2</v>
+      </c>
+      <c r="I98" s="8">
         <v>561349000</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E99" s="8">
+    <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="5">
         <v>1610</v>
       </c>
-      <c r="F99" s="8">
-        <v>3</v>
-      </c>
-      <c r="G99" s="8">
+      <c r="F99" s="5">
+        <v>3</v>
+      </c>
+      <c r="G99" s="11">
         <v>39000048</v>
       </c>
-      <c r="H99" s="8">
-        <v>2</v>
-      </c>
-      <c r="I99" s="8">
+      <c r="H99" s="5">
+        <v>2</v>
+      </c>
+      <c r="I99" s="5">
         <v>561349000</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="E100" s="5">
-        <v>1610</v>
+        <v>960</v>
       </c>
       <c r="F100" s="5">
-        <v>3</v>
-      </c>
-      <c r="G100" s="5">
-        <v>39000048</v>
+        <v>5</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H100" s="5">
         <v>2</v>
@@ -4345,16 +4365,16 @@
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="E101" s="5">
         <v>960</v>
@@ -4362,7 +4382,7 @@
       <c r="F101" s="5">
         <v>5</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="5">
@@ -4374,25 +4394,26 @@
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="E102" s="5">
-        <v>960</v>
+        <f>1320+5</f>
+        <v>1325</v>
       </c>
       <c r="F102" s="5">
-        <v>5</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G102" s="11">
+        <v>39000048</v>
       </c>
       <c r="H102" s="5">
         <v>2</v>
@@ -4403,32 +4424,32 @@
     </row>
     <row r="103" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E103" s="5">
         <f>1320+5</f>
         <v>1325</v>
       </c>
       <c r="F103" s="5">
-        <v>3</v>
-      </c>
-      <c r="G103" s="5">
+        <v>2</v>
+      </c>
+      <c r="G103" s="11">
+        <v>561349000</v>
+      </c>
+      <c r="H103" s="5">
+        <v>3</v>
+      </c>
+      <c r="I103" s="5">
         <v>39000048</v>
-      </c>
-      <c r="H103" s="5">
-        <v>2</v>
-      </c>
-      <c r="I103" s="5">
-        <v>561349000</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4436,7 +4457,7 @@
         <v>59</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>51</v>
@@ -4445,63 +4466,63 @@
         <v>61</v>
       </c>
       <c r="E104" s="5">
-        <f>1320+5</f>
-        <v>1325</v>
+        <v>520</v>
       </c>
       <c r="F104" s="5">
         <v>2</v>
       </c>
-      <c r="G104" s="5">
-        <v>561349000</v>
+      <c r="G104" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H104" s="5">
-        <v>3</v>
-      </c>
-      <c r="I104" s="5">
-        <v>39000048</v>
+        <v>7</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E105" s="5">
-        <v>520</v>
+        <f>1550+5</f>
+        <v>1555</v>
       </c>
       <c r="F105" s="5">
         <v>2</v>
       </c>
-      <c r="G105" s="5" t="s">
-        <v>138</v>
+      <c r="G105" s="11">
+        <v>561349000</v>
       </c>
       <c r="H105" s="5">
-        <v>7</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>205</v>
+        <v>3</v>
+      </c>
+      <c r="I105" s="5">
+        <v>39000048</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E106" s="5">
         <f>1550+5</f>
@@ -4510,7 +4531,7 @@
       <c r="F106" s="5">
         <v>2</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="11">
         <v>561349000</v>
       </c>
       <c r="H106" s="5">
@@ -4522,25 +4543,25 @@
     </row>
     <row r="107" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E107" s="5">
-        <f>1550+5</f>
-        <v>1555</v>
+        <f>1320+10</f>
+        <v>1330</v>
       </c>
       <c r="F107" s="5">
         <v>2</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="11">
         <v>561349000</v>
       </c>
       <c r="H107" s="5">
@@ -4552,105 +4573,104 @@
     </row>
     <row r="108" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="E108" s="5">
-        <f>1320+10</f>
-        <v>1330</v>
+        <v>920</v>
       </c>
       <c r="F108" s="5">
         <v>2</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="11">
         <v>561349000</v>
       </c>
       <c r="H108" s="5">
-        <v>3</v>
-      </c>
-      <c r="I108" s="5">
-        <v>39000048</v>
+        <v>5</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="E109" s="5">
-        <v>920</v>
+        <f>920-15</f>
+        <v>905</v>
       </c>
       <c r="F109" s="5">
         <v>2</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="11">
         <v>561349000</v>
       </c>
       <c r="H109" s="5">
         <v>5</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="E110" s="5">
-        <f>920-15</f>
-        <v>905</v>
+        <v>1830</v>
       </c>
       <c r="F110" s="5">
-        <v>2</v>
-      </c>
-      <c r="G110" s="5">
+        <v>3</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H110" s="5">
+        <v>2</v>
+      </c>
+      <c r="I110" s="5">
         <v>561349000</v>
-      </c>
-      <c r="H110" s="5">
-        <v>5</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="E111" s="5">
         <v>1830</v>
@@ -4658,7 +4678,7 @@
       <c r="F111" s="5">
         <v>3</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="11">
         <v>39000048</v>
       </c>
       <c r="H111" s="5">
@@ -4670,24 +4690,25 @@
     </row>
     <row r="112" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E112" s="5">
-        <v>1830</v>
+        <f>2410+10</f>
+        <v>2420</v>
       </c>
       <c r="F112" s="5">
         <v>3</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="11">
         <v>39000048</v>
       </c>
       <c r="H112" s="5">
@@ -4699,25 +4720,24 @@
     </row>
     <row r="113" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="E113" s="5">
-        <f>2410+10</f>
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="F113" s="5">
         <v>3</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="11">
         <v>39000048</v>
       </c>
       <c r="H113" s="5">
@@ -4729,45 +4749,45 @@
     </row>
     <row r="114" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D114" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="5">
+        <v>960</v>
+      </c>
+      <c r="F114" s="5">
+        <v>2</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H114" s="5">
+        <v>3</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="E114" s="5">
-        <v>2410</v>
-      </c>
-      <c r="F114" s="5">
-        <v>3</v>
-      </c>
-      <c r="G114" s="5">
-        <v>39000048</v>
-      </c>
-      <c r="H114" s="5">
-        <v>2</v>
-      </c>
-      <c r="I114" s="5">
-        <v>561349000</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E115" s="5">
         <v>960</v>
@@ -4775,28 +4795,28 @@
       <c r="F115" s="5">
         <v>2</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>138</v>
+      <c r="G115" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H115" s="5">
         <v>3</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="E116" s="5">
         <v>960</v>
@@ -4804,28 +4824,28 @@
       <c r="F116" s="5">
         <v>2</v>
       </c>
-      <c r="G116" s="5" t="s">
-        <v>138</v>
+      <c r="G116" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H116" s="5">
         <v>3</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="E117" s="5">
         <v>960</v>
@@ -4833,80 +4853,80 @@
       <c r="F117" s="5">
         <v>2</v>
       </c>
-      <c r="G117" s="5" t="s">
-        <v>138</v>
+      <c r="G117" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H117" s="5">
         <v>3</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="E118" s="5">
-        <v>960</v>
+        <v>1520</v>
       </c>
       <c r="F118" s="5">
         <v>2</v>
       </c>
-      <c r="G118" s="5" t="s">
-        <v>138</v>
+      <c r="G118" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H118" s="5">
         <v>3</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E119" s="5">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="F119" s="5">
         <v>2</v>
       </c>
-      <c r="G119" s="5" t="s">
-        <v>138</v>
+      <c r="G119" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H119" s="5">
         <v>3</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>51</v>
@@ -4920,28 +4940,28 @@
       <c r="F120" s="5">
         <v>2</v>
       </c>
-      <c r="G120" s="5" t="s">
-        <v>138</v>
+      <c r="G120" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H120" s="5">
         <v>3</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="E121" s="5">
         <v>1525</v>
@@ -4949,57 +4969,57 @@
       <c r="F121" s="5">
         <v>2</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>138</v>
+      <c r="G121" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H121" s="5">
         <v>3</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="E122" s="5">
-        <v>1525</v>
+        <v>1665</v>
       </c>
       <c r="F122" s="5">
-        <v>2</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="H122" s="5">
-        <v>3</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>217</v>
+        <v>2</v>
+      </c>
+      <c r="I122" s="5">
+        <v>561349000</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E123" s="5">
         <v>1665</v>
@@ -5007,8 +5027,8 @@
       <c r="F123" s="5">
         <v>3</v>
       </c>
-      <c r="G123" s="5" t="s">
-        <v>217</v>
+      <c r="G123" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="H123" s="5">
         <v>2</v>
@@ -5019,16 +5039,16 @@
     </row>
     <row r="124" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E124" s="5">
         <v>1665</v>
@@ -5036,8 +5056,8 @@
       <c r="F124" s="5">
         <v>3</v>
       </c>
-      <c r="G124" s="5" t="s">
-        <v>217</v>
+      <c r="G124" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="H124" s="5">
         <v>2</v>
@@ -5048,25 +5068,25 @@
     </row>
     <row r="125" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E125" s="5">
-        <v>1665</v>
+        <v>1100</v>
       </c>
       <c r="F125" s="5">
         <v>3</v>
       </c>
-      <c r="G125" s="5" t="s">
-        <v>217</v>
+      <c r="G125" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="H125" s="5">
         <v>2</v>
@@ -5077,16 +5097,16 @@
     </row>
     <row r="126" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="E126" s="5">
         <v>1100</v>
@@ -5094,8 +5114,8 @@
       <c r="F126" s="5">
         <v>3</v>
       </c>
-      <c r="G126" s="5" t="s">
-        <v>217</v>
+      <c r="G126" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="H126" s="5">
         <v>2</v>
@@ -5106,16 +5126,16 @@
     </row>
     <row r="127" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E127" s="5">
         <v>1100</v>
@@ -5123,8 +5143,8 @@
       <c r="F127" s="5">
         <v>3</v>
       </c>
-      <c r="G127" s="5" t="s">
-        <v>217</v>
+      <c r="G127" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="H127" s="5">
         <v>2</v>
@@ -5135,31 +5155,31 @@
     </row>
     <row r="128" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="5">
+        <v>300</v>
+      </c>
+      <c r="F128" s="5">
+        <v>2</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H128" s="5">
+        <v>7</v>
+      </c>
+      <c r="I128" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="E128" s="5">
-        <v>1100</v>
-      </c>
-      <c r="F128" s="5">
-        <v>3</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H128" s="5">
-        <v>2</v>
-      </c>
-      <c r="I128" s="5">
-        <v>561349000</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5167,7 +5187,7 @@
         <v>14</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>51</v>
@@ -5176,13 +5196,13 @@
         <v>16</v>
       </c>
       <c r="E129" s="5">
-        <v>300</v>
+        <v>605</v>
       </c>
       <c r="F129" s="5">
-        <v>2</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="H129" s="5">
         <v>7</v>
@@ -5196,7 +5216,7 @@
         <v>14</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>51</v>
@@ -5205,42 +5225,42 @@
         <v>16</v>
       </c>
       <c r="E130" s="5">
-        <v>605</v>
+        <v>1150</v>
       </c>
       <c r="F130" s="5">
         <v>3</v>
       </c>
-      <c r="G130" s="5" t="s">
-        <v>217</v>
+      <c r="G130" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="H130" s="5">
         <v>7</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E131" s="5">
-        <v>1150</v>
+        <v>1610</v>
       </c>
       <c r="F131" s="5">
-        <v>3</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>217</v>
+        <v>2</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H131" s="5">
         <v>7</v>
@@ -5251,25 +5271,25 @@
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E132" s="5">
-        <v>1610</v>
+        <v>650</v>
       </c>
       <c r="F132" s="5">
-        <v>2</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="G132" s="11">
+        <v>39000048</v>
       </c>
       <c r="H132" s="5">
         <v>7</v>
@@ -5280,45 +5300,45 @@
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C133" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="E133" s="5">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="F133" s="5">
-        <v>3</v>
-      </c>
-      <c r="G133" s="5">
-        <v>39000048</v>
+        <v>7</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="H133" s="5">
         <v>7</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E134" s="5">
         <v>610</v>
@@ -5326,43 +5346,43 @@
       <c r="F134" s="5">
         <v>7</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>233</v>
+      <c r="G134" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="H134" s="5">
         <v>7</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="E135" s="5">
-        <v>610</v>
+        <v>1810</v>
       </c>
       <c r="F135" s="5">
-        <v>7</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>235</v>
+        <v>2</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H135" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5370,50 +5390,50 @@
         <v>54</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D136" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="5">
+        <v>500</v>
+      </c>
+      <c r="F136" s="5">
+        <v>3</v>
+      </c>
+      <c r="G136" s="11">
+        <v>39000048</v>
+      </c>
+      <c r="H136" s="5">
+        <v>7</v>
+      </c>
+      <c r="I136" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E136" s="5">
-        <v>1810</v>
-      </c>
-      <c r="F136" s="5">
-        <v>2</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H136" s="5">
-        <v>3</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E137" s="5">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="F137" s="5">
         <v>3</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="11">
         <v>39000048</v>
       </c>
       <c r="H137" s="5">
@@ -5425,24 +5445,24 @@
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E138" s="5">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="F138" s="5">
         <v>3</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G138" s="11">
         <v>39000048</v>
       </c>
       <c r="H138" s="5">
@@ -5457,7 +5477,7 @@
         <v>64</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>51</v>
@@ -5466,121 +5486,121 @@
         <v>66</v>
       </c>
       <c r="E139" s="5">
-        <v>445</v>
+        <f>2220-140</f>
+        <v>2080</v>
       </c>
       <c r="F139" s="5">
-        <v>3</v>
-      </c>
-      <c r="G139" s="5">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H139" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="E140" s="5">
-        <f>2220-140</f>
-        <v>2080</v>
+        <v>360</v>
       </c>
       <c r="F140" s="5">
-        <v>2</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="H140" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E141" s="5">
-        <v>360</v>
+        <v>2020</v>
       </c>
       <c r="F141" s="5">
-        <v>5</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>160</v>
+        <v>2</v>
+      </c>
+      <c r="G141" s="11">
+        <v>561349000</v>
       </c>
       <c r="H141" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E142" s="5">
-        <v>2020</v>
+        <v>1825</v>
       </c>
       <c r="F142" s="5">
         <v>2</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="11">
         <v>561349000</v>
       </c>
       <c r="H142" s="5">
         <v>3</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E143" s="5">
         <v>1825</v>
@@ -5588,28 +5608,28 @@
       <c r="F143" s="5">
         <v>2</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="11">
         <v>561349000</v>
       </c>
       <c r="H143" s="5">
         <v>3</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="E144" s="5">
         <v>1825</v>
@@ -5617,28 +5637,28 @@
       <c r="F144" s="5">
         <v>2</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="11">
         <v>561349000</v>
       </c>
       <c r="H144" s="5">
         <v>3</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="E145" s="5">
         <v>1825</v>
@@ -5646,57 +5666,58 @@
       <c r="F145" s="5">
         <v>2</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="11">
         <v>561349000</v>
       </c>
       <c r="H145" s="5">
         <v>3</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E146" s="5">
-        <v>1825</v>
+        <f>2400+10</f>
+        <v>2410</v>
       </c>
       <c r="F146" s="5">
-        <v>2</v>
-      </c>
-      <c r="G146" s="5">
+        <v>3</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H146" s="5">
+        <v>2</v>
+      </c>
+      <c r="I146" s="5">
         <v>561349000</v>
-      </c>
-      <c r="H146" s="5">
-        <v>3</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E147" s="5">
         <f>2400+10</f>
@@ -5705,8 +5726,8 @@
       <c r="F147" s="5">
         <v>3</v>
       </c>
-      <c r="G147" s="5" t="s">
-        <v>244</v>
+      <c r="G147" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="H147" s="5">
         <v>2</v>
@@ -5717,10 +5738,10 @@
     </row>
     <row r="148" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>51</v>
@@ -5733,24 +5754,24 @@
         <v>2410</v>
       </c>
       <c r="F148" s="5">
-        <v>3</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>244</v>
+        <v>2</v>
+      </c>
+      <c r="G148" s="11">
+        <v>561349000</v>
       </c>
       <c r="H148" s="5">
-        <v>2</v>
-      </c>
-      <c r="I148" s="5">
-        <v>561349000</v>
+        <v>3</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>51</v>
@@ -5765,148 +5786,148 @@
       <c r="F149" s="5">
         <v>2</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="11">
         <v>561349000</v>
       </c>
       <c r="H149" s="5">
         <v>3</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D150" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E150" s="5">
+        <f>1060+35</f>
+        <v>1095</v>
+      </c>
+      <c r="F150" s="5">
+        <v>3</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H150" s="5">
+        <v>7</v>
+      </c>
+      <c r="I150" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="E150" s="5">
-        <f>2400+10</f>
-        <v>2410</v>
-      </c>
-      <c r="F150" s="5">
-        <v>2</v>
-      </c>
-      <c r="G150" s="5">
-        <v>561349000</v>
-      </c>
-      <c r="H150" s="5">
-        <v>3</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E151" s="5">
-        <f>1060+35</f>
-        <v>1095</v>
+        <f>1840+5</f>
+        <v>1845</v>
       </c>
       <c r="F151" s="5">
         <v>3</v>
       </c>
-      <c r="G151" s="5" t="s">
-        <v>244</v>
+      <c r="G151" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="H151" s="5">
-        <v>7</v>
-      </c>
-      <c r="I151" s="5" t="s">
-        <v>251</v>
+        <v>2</v>
+      </c>
+      <c r="I151" s="5">
+        <v>561349000</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="E152" s="5">
-        <f>1840+5</f>
-        <v>1845</v>
+        <f>1825+25</f>
+        <v>1850</v>
       </c>
       <c r="F152" s="5">
         <v>3</v>
       </c>
-      <c r="G152" s="5" t="s">
-        <v>244</v>
+      <c r="G152" s="11">
+        <v>561349000</v>
       </c>
       <c r="H152" s="5">
-        <v>2</v>
-      </c>
-      <c r="I152" s="5">
-        <v>561349000</v>
+        <v>3</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="E153" s="5">
-        <f>1825+25</f>
-        <v>1850</v>
+        <f>1650+35</f>
+        <v>1685</v>
       </c>
       <c r="F153" s="5">
         <v>3</v>
       </c>
-      <c r="G153" s="5">
-        <v>561349000</v>
+      <c r="G153" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="H153" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E154" s="5">
         <f>1650+35</f>
@@ -5915,8 +5936,8 @@
       <c r="F154" s="5">
         <v>3</v>
       </c>
-      <c r="G154" s="5" t="s">
-        <v>244</v>
+      <c r="G154" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="H154" s="5">
         <v>2</v>
@@ -5927,135 +5948,134 @@
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E155" s="5">
-        <f>1650+35</f>
-        <v>1685</v>
+        <v>3130</v>
       </c>
       <c r="F155" s="5">
-        <v>3</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>244</v>
+        <v>2</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H155" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E156" s="5">
-        <v>3130</v>
+        <f>4680+50</f>
+        <v>4730</v>
       </c>
       <c r="F156" s="5">
-        <v>2</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="H156" s="5">
         <v>3</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="E157" s="5">
-        <f>4680+50</f>
-        <v>4730</v>
+        <f>2115+20</f>
+        <v>2135</v>
       </c>
       <c r="F157" s="5">
         <v>3</v>
       </c>
-      <c r="G157" s="5" t="s">
-        <v>163</v>
+      <c r="G157" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="H157" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="E158" s="5">
-        <f>2115+20</f>
-        <v>2135</v>
+        <v>1470</v>
       </c>
       <c r="F158" s="5">
         <v>3</v>
       </c>
-      <c r="G158" s="5" t="s">
-        <v>163</v>
+      <c r="G158" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="H158" s="5">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E159" s="5">
         <v>1470</v>
@@ -6063,48 +6083,48 @@
       <c r="F159" s="5">
         <v>3</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="G159" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H159" s="5">
         <v>4.8</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E160" s="5">
-        <v>1470</v>
+        <v>1035</v>
       </c>
       <c r="F160" s="5">
-        <v>3</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H160" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>88</v>
@@ -6113,22 +6133,23 @@
         <v>51</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E161" s="5">
-        <v>1035</v>
+        <f>390+100</f>
+        <v>490</v>
       </c>
       <c r="F161" s="5">
         <v>2</v>
       </c>
-      <c r="G161" s="5" t="s">
+      <c r="G161" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H161" s="5">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6136,7 +6157,7 @@
         <v>64</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>51</v>
@@ -6145,14 +6166,13 @@
         <v>66</v>
       </c>
       <c r="E162" s="5">
-        <f>390+100</f>
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="F162" s="5">
-        <v>2</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>62</v>
+        <v>3.5</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H162" s="5">
         <v>7</v>
@@ -6166,7 +6186,7 @@
         <v>64</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>51</v>
@@ -6175,57 +6195,57 @@
         <v>66</v>
       </c>
       <c r="E163" s="5">
-        <v>560</v>
+        <f>285+15+100</f>
+        <v>400</v>
       </c>
       <c r="F163" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="H163" s="5">
         <v>7</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E164" s="5">
-        <f>285+15+100</f>
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="F164" s="5">
-        <v>3</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>92</v>
+        <v>3.5</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H164" s="5">
         <v>7</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>51</v>
@@ -6234,13 +6254,14 @@
         <v>29</v>
       </c>
       <c r="E165" s="5">
-        <v>625</v>
+        <f>230+100</f>
+        <v>330</v>
       </c>
       <c r="F165" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="H165" s="5">
         <v>7</v>
@@ -6251,10 +6272,10 @@
     </row>
     <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>51</v>
@@ -6263,54 +6284,53 @@
         <v>29</v>
       </c>
       <c r="E166" s="5">
-        <f>230+100</f>
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="F166" s="5">
-        <v>3</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>92</v>
+        <v>2</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H166" s="5">
         <v>7</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E167" s="5">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="F167" s="5">
-        <v>2</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="H167" s="5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>97</v>
@@ -6319,153 +6339,154 @@
         <v>51</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E168" s="5">
         <v>185</v>
       </c>
       <c r="F168" s="5">
-        <v>3</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>92</v>
+        <v>3.5</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H168" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E169" s="5">
-        <v>185</v>
+        <v>480</v>
       </c>
       <c r="F169" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="H169" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="C170" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E170" s="5">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="F170" s="5">
-        <v>3</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>102</v>
+        <v>7</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="H170" s="5">
         <v>11</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="C171" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E171" s="5">
-        <v>310</v>
+        <f>425+100</f>
+        <v>525</v>
       </c>
       <c r="F171" s="5">
-        <v>7</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="H171" s="5">
         <v>11</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E172" s="5">
-        <f>425+100</f>
-        <v>525</v>
+        <f>730+100</f>
+        <v>830</v>
       </c>
       <c r="F172" s="5">
-        <v>5</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H172" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="E173" s="5">
         <f>730+100</f>
@@ -6474,7 +6495,7 @@
       <c r="F173" s="5">
         <v>2</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="G173" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H173" s="5">
@@ -6486,46 +6507,45 @@
     </row>
     <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E174" s="5">
-        <f>730+100</f>
-        <v>830</v>
+        <v>190</v>
       </c>
       <c r="F174" s="5">
         <v>2</v>
       </c>
-      <c r="G174" s="5" t="s">
+      <c r="G174" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H174" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>259</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E175" s="5">
         <v>190</v>
@@ -6533,57 +6553,58 @@
       <c r="F175" s="5">
         <v>2</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G175" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H175" s="5">
         <v>3</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E176" s="5">
-        <v>190</v>
+        <f>1130+100</f>
+        <v>1230</v>
       </c>
       <c r="F176" s="5">
-        <v>2</v>
-      </c>
-      <c r="G176" s="5" t="s">
-        <v>62</v>
+        <v>3.5</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H176" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E177" s="5">
         <f>1130+100</f>
@@ -6592,7 +6613,7 @@
       <c r="F177" s="5">
         <v>3.5</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G177" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H177" s="5">
@@ -6604,46 +6625,45 @@
     </row>
     <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E178" s="5">
-        <f>1130+100</f>
-        <v>1230</v>
+        <v>220</v>
       </c>
       <c r="F178" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H178" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>261</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="E179" s="5">
         <v>220</v>
@@ -6651,51 +6671,51 @@
       <c r="F179" s="5">
         <v>2</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G179" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H179" s="5">
         <v>3</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="E180" s="5">
-        <v>220</v>
+        <v>1045</v>
       </c>
       <c r="F180" s="5">
-        <v>2</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>62</v>
+        <v>3.5</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H180" s="5">
-        <v>3</v>
-      </c>
-      <c r="I180" s="5" t="s">
-        <v>92</v>
+        <v>2</v>
+      </c>
+      <c r="I180" s="5">
+        <v>561349001</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>51</v>
@@ -6709,7 +6729,7 @@
       <c r="F181" s="5">
         <v>3.5</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="G181" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H181" s="5">
@@ -6721,54 +6741,54 @@
     </row>
     <row r="182" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D182" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E182" s="5">
+        <v>670</v>
+      </c>
+      <c r="F182" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" s="5">
+        <v>7</v>
+      </c>
+      <c r="I182" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="E182" s="5">
-        <v>1045</v>
-      </c>
-      <c r="F182" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H182" s="5">
-        <v>2</v>
-      </c>
-      <c r="I182" s="5">
-        <v>561349001</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="E183" s="5">
-        <v>670</v>
+        <v>370</v>
       </c>
       <c r="F183" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G183" s="11">
+        <v>561349001</v>
       </c>
       <c r="H183" s="5">
         <v>7</v>
@@ -6779,86 +6799,86 @@
     </row>
     <row r="184" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="E184" s="5">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="F184" s="5">
-        <v>2</v>
-      </c>
-      <c r="G184" s="5">
-        <v>561349001</v>
+        <v>3</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="H184" s="5">
         <v>7</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E185" s="5">
-        <v>285</v>
+        <v>950</v>
       </c>
       <c r="F185" s="5">
         <v>3</v>
       </c>
-      <c r="G185" s="5" t="s">
-        <v>266</v>
+      <c r="G185" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="H185" s="5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E186" s="5">
-        <v>950</v>
+        <v>425</v>
       </c>
       <c r="F186" s="5">
-        <v>3</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>266</v>
+        <v>5</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H186" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I186" s="5" t="s">
         <v>13</v>
@@ -6866,16 +6886,16 @@
     </row>
     <row r="187" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E187" s="5">
         <v>425</v>
@@ -6883,7 +6903,7 @@
       <c r="F187" s="5">
         <v>5</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="G187" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H187" s="5">
@@ -6895,16 +6915,16 @@
     </row>
     <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E188" s="5">
         <v>425</v>
@@ -6912,8 +6932,8 @@
       <c r="F188" s="5">
         <v>5</v>
       </c>
-      <c r="G188" s="5" t="s">
-        <v>12</v>
+      <c r="G188" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="H188" s="5">
         <v>3</v>
@@ -6924,45 +6944,45 @@
     </row>
     <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E189" s="5">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="F189" s="5">
-        <v>5</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>20</v>
+        <v>3.5</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="H189" s="5">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="E190" s="5">
         <v>185</v>
@@ -6970,57 +6990,57 @@
       <c r="F190" s="5">
         <v>3.5</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="G190" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H190" s="5">
         <v>4.8</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="E191" s="5">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="F191" s="5">
         <v>3.5</v>
       </c>
-      <c r="G191" s="5" t="s">
+      <c r="G191" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H191" s="5">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E192" s="5">
         <v>158</v>
@@ -7028,7 +7048,7 @@
       <c r="F192" s="5">
         <v>3.5</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="G192" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H192" s="5">
@@ -7040,16 +7060,16 @@
     </row>
     <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E193" s="5">
         <v>158</v>
@@ -7057,7 +7077,7 @@
       <c r="F193" s="5">
         <v>3.5</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="G193" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H193" s="5">
@@ -7069,16 +7089,16 @@
     </row>
     <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E194" s="5">
         <v>158</v>
@@ -7086,7 +7106,7 @@
       <c r="F194" s="5">
         <v>3.5</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H194" s="5">
@@ -7098,31 +7118,31 @@
     </row>
     <row r="195" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E195" s="5">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="F195" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H195" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I195" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H195" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I195" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7133,66 +7153,66 @@
         <v>36</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E196" s="5">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="F196" s="5">
         <v>7</v>
       </c>
-      <c r="G196" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="G196" s="11"/>
       <c r="H196" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E197" s="5">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F197" s="5">
-        <v>7</v>
-      </c>
-      <c r="G197" s="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="H197" s="5">
         <v>5</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E198" s="5">
         <v>155</v>
@@ -7200,57 +7220,57 @@
       <c r="F198" s="5">
         <v>4.8</v>
       </c>
-      <c r="G198" s="5" t="s">
-        <v>160</v>
+      <c r="G198" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="H198" s="5">
         <v>5</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E199" s="5">
-        <v>155</v>
+        <v>425</v>
       </c>
       <c r="F199" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>160</v>
+        <v>5</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H199" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E200" s="5">
         <v>425</v>
@@ -7258,7 +7278,7 @@
       <c r="F200" s="5">
         <v>5</v>
       </c>
-      <c r="G200" s="5" t="s">
+      <c r="G200" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H200" s="5">
@@ -7270,16 +7290,16 @@
     </row>
     <row r="201" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E201" s="5">
         <v>425</v>
@@ -7287,8 +7307,8 @@
       <c r="F201" s="5">
         <v>5</v>
       </c>
-      <c r="G201" s="5" t="s">
-        <v>12</v>
+      <c r="G201" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="H201" s="5">
         <v>3</v>
@@ -7299,45 +7319,45 @@
     </row>
     <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E202" s="5">
-        <v>425</v>
+        <v>158</v>
       </c>
       <c r="F202" s="5">
-        <v>5</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>20</v>
+        <v>3.5</v>
+      </c>
+      <c r="G202" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="H202" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E203" s="5">
         <v>158</v>
@@ -7345,7 +7365,7 @@
       <c r="F203" s="5">
         <v>3.5</v>
       </c>
-      <c r="G203" s="5" t="s">
+      <c r="G203" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H203" s="5">
@@ -7357,16 +7377,16 @@
     </row>
     <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E204" s="5">
         <v>158</v>
@@ -7374,7 +7394,7 @@
       <c r="F204" s="5">
         <v>3.5</v>
       </c>
-      <c r="G204" s="5" t="s">
+      <c r="G204" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H204" s="5">
@@ -7386,16 +7406,16 @@
     </row>
     <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E205" s="5">
         <v>158</v>
@@ -7403,7 +7423,7 @@
       <c r="F205" s="5">
         <v>3.5</v>
       </c>
-      <c r="G205" s="5" t="s">
+      <c r="G205" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H205" s="5">
@@ -7415,31 +7435,31 @@
     </row>
     <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E206" s="5">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="F206" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G206" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H206" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I206" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H206" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I206" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7456,60 +7476,60 @@
         <v>38</v>
       </c>
       <c r="E207" s="5">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="F207" s="5">
         <v>7</v>
       </c>
-      <c r="G207" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="G207" s="11"/>
       <c r="H207" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E208" s="5">
         <v>175</v>
       </c>
       <c r="F208" s="5">
-        <v>7</v>
-      </c>
-      <c r="G208" s="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="G208" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H208" s="5">
         <v>5</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E209" s="5">
         <v>175</v>
@@ -7517,47 +7537,19 @@
       <c r="F209" s="5">
         <v>3.5</v>
       </c>
-      <c r="G209" s="5" t="s">
+      <c r="G209" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H209" s="5">
         <v>5</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E210" s="5">
-        <v>175</v>
-      </c>
-      <c r="F210" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H210" s="5">
-        <v>5</v>
-      </c>
-      <c r="I210" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="210" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gad-shaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4820354-F2EC-4C56-9B76-A971BB96CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198D758-D094-41ED-83DB-42E6DA11C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$209</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="275">
   <si>
     <t>Wire No.</t>
   </si>
@@ -747,9 +750,6 @@
     <t>SFG00969</t>
   </si>
   <si>
-    <t>UL1569AWG22Orange/Blue(BARE)</t>
-  </si>
-  <si>
     <t>Orange / Blue</t>
   </si>
   <si>
@@ -986,6 +986,18 @@
   </si>
   <si>
     <t>0039000048</t>
+  </si>
+  <si>
+    <t>39000048</t>
+  </si>
+  <si>
+    <t>1P0039000048</t>
+  </si>
+  <si>
+    <t>1P0561349000</t>
+  </si>
+  <si>
+    <t>UL1569AWG22ORANGE/BLUE(BARE)</t>
   </si>
 </sst>
 </file>
@@ -1429,10 +1441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D101" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1440,8 +1453,10 @@
     <col min="2" max="2" width="41.88671875" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="32.21875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1469,11 +1484,11 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1498,11 +1513,11 @@
       <c r="H2" s="5">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1527,11 +1542,11 @@
       <c r="H3" s="5">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1556,11 +1571,11 @@
       <c r="H4" s="5">
         <v>3</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1585,11 +1600,11 @@
       <c r="H5" s="5">
         <v>3.5</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1614,11 +1629,11 @@
       <c r="H6" s="5">
         <v>3.5</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1643,11 +1658,11 @@
       <c r="H7" s="5">
         <v>3.5</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1672,11 +1687,11 @@
       <c r="H8" s="5">
         <v>3.5</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1701,11 +1716,11 @@
       <c r="H9" s="5">
         <v>3.5</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -1728,11 +1743,11 @@
       <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1757,11 +1772,11 @@
       <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1786,11 +1801,11 @@
       <c r="H12" s="5">
         <v>5</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
@@ -1815,11 +1830,11 @@
       <c r="H13" s="5">
         <v>3.5</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
@@ -1844,11 +1859,11 @@
       <c r="H14" s="5">
         <v>3.5</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1873,11 +1888,11 @@
       <c r="H15" s="5">
         <v>3.5</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
@@ -1902,11 +1917,11 @@
       <c r="H16" s="5">
         <v>3.5</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
@@ -1932,11 +1947,11 @@
       <c r="H17" s="5">
         <v>4.5</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -1962,11 +1977,11 @@
       <c r="H18" s="5">
         <v>4.5</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>64</v>
       </c>
@@ -1991,11 +2006,11 @@
       <c r="H19" s="5">
         <v>5</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -2021,11 +2036,11 @@
       <c r="H20" s="5">
         <v>5</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -2050,11 +2065,11 @@
       <c r="H21" s="5">
         <v>3.5</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
@@ -2079,11 +2094,11 @@
       <c r="H22" s="5">
         <v>7</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
@@ -2108,11 +2123,11 @@
       <c r="H23" s="5">
         <v>7</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
@@ -2137,11 +2152,11 @@
       <c r="H24" s="5">
         <v>7</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
@@ -2166,11 +2181,11 @@
       <c r="H25" s="5">
         <v>3.5</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
@@ -2196,11 +2211,11 @@
       <c r="H26" s="5">
         <v>4.8</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
@@ -2226,11 +2241,11 @@
       <c r="H27" s="5">
         <v>4.8</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -2255,11 +2270,11 @@
       <c r="H28" s="5">
         <v>3</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
@@ -2284,11 +2299,11 @@
       <c r="H29" s="5">
         <v>7</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
@@ -2313,11 +2328,11 @@
       <c r="H30" s="5">
         <v>7</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -2343,11 +2358,11 @@
       <c r="H31" s="5">
         <v>7</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>92</v>
       </c>
@@ -2372,11 +2387,11 @@
       <c r="H32" s="5">
         <v>7</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>92</v>
       </c>
@@ -2401,11 +2416,11 @@
       <c r="H33" s="5">
         <v>7</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -2430,11 +2445,11 @@
       <c r="H34" s="5">
         <v>7</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
@@ -2459,11 +2474,11 @@
       <c r="H35" s="5">
         <v>3</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>14</v>
       </c>
@@ -2488,11 +2503,11 @@
       <c r="H36" s="5">
         <v>3</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>98</v>
       </c>
@@ -2517,11 +2532,11 @@
       <c r="H37" s="5">
         <v>11</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>98</v>
       </c>
@@ -2546,11 +2561,11 @@
       <c r="H38" s="5">
         <v>11</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -2575,11 +2590,11 @@
       <c r="H39" s="5">
         <v>11</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>107</v>
       </c>
@@ -2604,11 +2619,11 @@
       <c r="H40" s="5">
         <v>7</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
@@ -2633,11 +2648,11 @@
       <c r="H41" s="5">
         <v>7</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -2662,11 +2677,11 @@
       <c r="H42" s="5">
         <v>3</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>112</v>
       </c>
@@ -2691,11 +2706,11 @@
       <c r="H43" s="5">
         <v>3</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>115</v>
       </c>
@@ -2720,11 +2735,11 @@
       <c r="H44" s="5">
         <v>7</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>112</v>
       </c>
@@ -2749,11 +2764,11 @@
       <c r="H45" s="5">
         <v>7</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>119</v>
       </c>
@@ -2778,11 +2793,11 @@
       <c r="H46" s="5">
         <v>3</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>119</v>
       </c>
@@ -2807,11 +2822,11 @@
       <c r="H47" s="5">
         <v>3</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -2836,11 +2851,11 @@
       <c r="H48" s="5">
         <v>3</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>59</v>
       </c>
@@ -2865,11 +2880,11 @@
       <c r="H49" s="5">
         <v>3.5</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>92</v>
       </c>
@@ -2894,11 +2909,11 @@
       <c r="H50" s="5">
         <v>3.5</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>124</v>
       </c>
@@ -2923,11 +2938,11 @@
       <c r="H51" s="5">
         <v>3.5</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>81</v>
       </c>
@@ -2952,11 +2967,11 @@
       <c r="H52" s="5">
         <v>3.5</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>127</v>
       </c>
@@ -2981,11 +2996,11 @@
       <c r="H53" s="5">
         <v>11</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>133</v>
       </c>
@@ -3010,11 +3025,11 @@
       <c r="H54" s="5">
         <v>5</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -3039,11 +3054,11 @@
       <c r="H55" s="5">
         <v>3.5</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>77</v>
       </c>
@@ -3068,11 +3083,11 @@
       <c r="H56" s="5">
         <v>3</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="11">
         <v>39000040</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>127</v>
       </c>
@@ -3097,11 +3112,11 @@
       <c r="H57" s="5">
         <v>11</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>112</v>
       </c>
@@ -3126,7 +3141,7 @@
       <c r="H58" s="5">
         <v>7</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3155,11 +3170,11 @@
       <c r="H59" s="5">
         <v>7</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>112</v>
       </c>
@@ -3185,7 +3200,7 @@
       <c r="H60" s="5">
         <v>3</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="11">
         <v>39000048</v>
       </c>
     </row>
@@ -3215,11 +3230,11 @@
       <c r="H61" s="5">
         <v>2</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>148</v>
       </c>
@@ -3244,11 +3259,11 @@
       <c r="H62" s="5">
         <v>7</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>145</v>
       </c>
@@ -3274,7 +3289,7 @@
       <c r="H63" s="5">
         <v>3</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3304,11 +3319,11 @@
       <c r="H64" s="5">
         <v>2</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>127</v>
       </c>
@@ -3333,11 +3348,11 @@
       <c r="H65" s="5">
         <v>11</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>68</v>
       </c>
@@ -3363,11 +3378,11 @@
       <c r="H66" s="5">
         <v>3</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>155</v>
       </c>
@@ -3392,11 +3407,11 @@
       <c r="H67" s="5">
         <v>3</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -3421,11 +3436,11 @@
       <c r="H68" s="5">
         <v>5</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>8</v>
       </c>
@@ -3451,11 +3466,11 @@
       <c r="H69" s="5">
         <v>3</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>124</v>
       </c>
@@ -3481,11 +3496,11 @@
       <c r="H70" s="5">
         <v>2</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -3510,11 +3525,11 @@
       <c r="H71" s="5">
         <v>2</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>165</v>
       </c>
@@ -3539,11 +3554,11 @@
       <c r="H72" s="5">
         <v>7</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>45</v>
       </c>
@@ -3569,11 +3584,11 @@
       <c r="H73" s="5">
         <v>12</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>155</v>
       </c>
@@ -3599,11 +3614,11 @@
       <c r="H74" s="5">
         <v>7</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>41</v>
       </c>
@@ -3628,11 +3643,11 @@
       <c r="H75" s="5">
         <v>11</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>72</v>
       </c>
@@ -3657,11 +3672,11 @@
       <c r="H76" s="5">
         <v>7</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>35</v>
       </c>
@@ -3686,11 +3701,11 @@
       <c r="H77" s="5">
         <v>11</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>35</v>
       </c>
@@ -3715,7 +3730,7 @@
       <c r="H78" s="5">
         <v>11</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3744,11 +3759,11 @@
       <c r="H79" s="5">
         <v>7</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>84</v>
       </c>
@@ -3773,11 +3788,11 @@
       <c r="H80" s="5">
         <v>3</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="11">
         <v>39000040</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>119</v>
       </c>
@@ -3803,11 +3818,11 @@
       <c r="H81" s="5">
         <v>3</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>45</v>
       </c>
@@ -3833,11 +3848,11 @@
       <c r="H82" s="5">
         <v>12</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>180</v>
       </c>
@@ -3863,11 +3878,11 @@
       <c r="H83" s="5">
         <v>12</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>56</v>
       </c>
@@ -3892,11 +3907,11 @@
       <c r="H84" s="5">
         <v>3.5</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>49</v>
       </c>
@@ -3921,11 +3936,11 @@
       <c r="H85" s="5">
         <v>3.5</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -3951,7 +3966,7 @@
       <c r="H86" s="5">
         <v>12</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I86" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3980,11 +3995,11 @@
       <c r="H87" s="5">
         <v>3</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I87" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>64</v>
       </c>
@@ -4009,11 +4024,11 @@
       <c r="H88" s="5">
         <v>7</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I88" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>92</v>
       </c>
@@ -4038,11 +4053,11 @@
       <c r="H89" s="5">
         <v>7</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I89" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>54</v>
       </c>
@@ -4068,11 +4083,11 @@
       <c r="H90" s="5">
         <v>7</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="I90" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>191</v>
       </c>
@@ -4098,7 +4113,7 @@
       <c r="H91" s="5">
         <v>7</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" s="11" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4127,7 +4142,7 @@
       <c r="H92" s="5">
         <v>7</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I92" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4156,11 +4171,11 @@
       <c r="H93" s="5">
         <v>7</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I93" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>54</v>
       </c>
@@ -4185,11 +4200,11 @@
       <c r="H94" s="5">
         <v>7</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="I94" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>124</v>
       </c>
@@ -4214,7 +4229,7 @@
       <c r="H95" s="5">
         <v>3</v>
       </c>
-      <c r="I95" s="5" t="s">
+      <c r="I95" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4243,7 +4258,7 @@
       <c r="H96" s="5">
         <v>2</v>
       </c>
-      <c r="I96" s="5">
+      <c r="I96" s="11">
         <v>561349000</v>
       </c>
     </row>
@@ -4272,7 +4287,7 @@
       <c r="H97" s="5">
         <v>2</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I97" s="11">
         <v>561349000</v>
       </c>
     </row>
@@ -4281,13 +4296,13 @@
         <v>198</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="E98" s="8">
         <v>1610</v>
@@ -4295,14 +4310,14 @@
       <c r="F98" s="8">
         <v>3</v>
       </c>
-      <c r="G98" s="12">
-        <v>39000048</v>
+      <c r="G98" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="H98" s="8">
         <v>2</v>
       </c>
-      <c r="I98" s="8">
-        <v>561349000</v>
+      <c r="I98" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4324,28 +4339,28 @@
       <c r="F99" s="5">
         <v>3</v>
       </c>
-      <c r="G99" s="11">
-        <v>39000048</v>
+      <c r="G99" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="H99" s="5">
         <v>2</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="C100" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="E100" s="5">
         <v>960</v>
@@ -4359,11 +4374,11 @@
       <c r="H100" s="5">
         <v>2</v>
       </c>
-      <c r="I100" s="5">
+      <c r="I100" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>119</v>
       </c>
@@ -4388,7 +4403,7 @@
       <c r="H101" s="5">
         <v>2</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I101" s="11">
         <v>561349000</v>
       </c>
     </row>
@@ -4418,11 +4433,11 @@
       <c r="H102" s="5">
         <v>2</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>59</v>
       </c>
@@ -4448,11 +4463,11 @@
       <c r="H103" s="5">
         <v>3</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I103" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>59</v>
       </c>
@@ -4477,11 +4492,11 @@
       <c r="H104" s="5">
         <v>7</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I104" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>92</v>
       </c>
@@ -4507,11 +4522,11 @@
       <c r="H105" s="5">
         <v>3</v>
       </c>
-      <c r="I105" s="5">
+      <c r="I105" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>54</v>
       </c>
@@ -4537,11 +4552,11 @@
       <c r="H106" s="5">
         <v>3</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I106" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>124</v>
       </c>
@@ -4567,22 +4582,22 @@
       <c r="H107" s="5">
         <v>3</v>
       </c>
-      <c r="I107" s="5">
+      <c r="I107" s="11">
         <v>39000048</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="C108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="E108" s="5">
         <v>920</v>
@@ -4596,16 +4611,16 @@
       <c r="H108" s="5">
         <v>5</v>
       </c>
-      <c r="I108" s="5" t="s">
+      <c r="I108" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>51</v>
@@ -4626,22 +4641,22 @@
       <c r="H109" s="5">
         <v>5</v>
       </c>
-      <c r="I109" s="5" t="s">
+      <c r="I109" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="C110" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="E110" s="5">
         <v>1830</v>
@@ -4650,12 +4665,12 @@
         <v>3</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H110" s="5">
         <v>2</v>
       </c>
-      <c r="I110" s="5">
+      <c r="I110" s="11">
         <v>561349000</v>
       </c>
     </row>
@@ -4684,7 +4699,7 @@
       <c r="H111" s="5">
         <v>2</v>
       </c>
-      <c r="I111" s="5">
+      <c r="I111" s="11">
         <v>561349000</v>
       </c>
     </row>
@@ -4714,22 +4729,22 @@
       <c r="H112" s="5">
         <v>2</v>
       </c>
-      <c r="I112" s="5">
+      <c r="I112" s="11">
         <v>561349000</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="E113" s="5">
         <v>2410</v>
@@ -4743,11 +4758,11 @@
       <c r="H113" s="5">
         <v>2</v>
       </c>
-      <c r="I113" s="5">
+      <c r="I113" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>92</v>
       </c>
@@ -4772,11 +4787,11 @@
       <c r="H114" s="5">
         <v>3</v>
       </c>
-      <c r="I114" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I114" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>56</v>
       </c>
@@ -4801,11 +4816,11 @@
       <c r="H115" s="5">
         <v>3</v>
       </c>
-      <c r="I115" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I115" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>8</v>
       </c>
@@ -4816,7 +4831,7 @@
         <v>51</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E116" s="5">
         <v>960</v>
@@ -4830,11 +4845,11 @@
       <c r="H116" s="5">
         <v>3</v>
       </c>
-      <c r="I116" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I116" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>49</v>
       </c>
@@ -4859,22 +4874,22 @@
       <c r="H117" s="5">
         <v>3</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I117" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C118" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="E118" s="5">
         <v>1520</v>
@@ -4888,22 +4903,22 @@
       <c r="H118" s="5">
         <v>3</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I118" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="C119" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="E119" s="5">
         <v>1525</v>
@@ -4917,22 +4932,22 @@
       <c r="H119" s="5">
         <v>3</v>
       </c>
-      <c r="I119" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I119" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="C120" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E120" s="5">
         <v>1525</v>
@@ -4946,11 +4961,11 @@
       <c r="H120" s="5">
         <v>3</v>
       </c>
-      <c r="I120" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I120" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>155</v>
       </c>
@@ -4975,11 +4990,11 @@
       <c r="H121" s="5">
         <v>3</v>
       </c>
-      <c r="I121" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I121" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>124</v>
       </c>
@@ -4999,16 +5014,16 @@
         <v>3</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H122" s="5">
         <v>2</v>
       </c>
-      <c r="I122" s="5">
+      <c r="I122" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>115</v>
       </c>
@@ -5028,16 +5043,16 @@
         <v>3</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H123" s="5">
         <v>2</v>
       </c>
-      <c r="I123" s="5">
+      <c r="I123" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>56</v>
       </c>
@@ -5057,16 +5072,16 @@
         <v>3</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H124" s="5">
         <v>2</v>
       </c>
-      <c r="I124" s="5">
+      <c r="I124" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>54</v>
       </c>
@@ -5086,27 +5101,27 @@
         <v>3</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H125" s="5">
         <v>2</v>
       </c>
-      <c r="I125" s="5">
+      <c r="I125" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C126" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="E126" s="5">
         <v>1100</v>
@@ -5115,27 +5130,27 @@
         <v>3</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H126" s="5">
         <v>2</v>
       </c>
-      <c r="I126" s="5">
+      <c r="I126" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="E127" s="5">
         <v>1100</v>
@@ -5144,16 +5159,16 @@
         <v>3</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H127" s="5">
         <v>2</v>
       </c>
-      <c r="I127" s="5">
+      <c r="I127" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>14</v>
       </c>
@@ -5178,11 +5193,11 @@
       <c r="H128" s="5">
         <v>7</v>
       </c>
-      <c r="I128" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I128" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>14</v>
       </c>
@@ -5202,16 +5217,16 @@
         <v>3</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H129" s="5">
         <v>7</v>
       </c>
-      <c r="I129" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I129" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>14</v>
       </c>
@@ -5231,16 +5246,16 @@
         <v>3</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H130" s="5">
         <v>7</v>
       </c>
-      <c r="I130" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I130" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>115</v>
       </c>
@@ -5265,8 +5280,8 @@
       <c r="H131" s="5">
         <v>7</v>
       </c>
-      <c r="I131" s="5" t="s">
-        <v>230</v>
+      <c r="I131" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5294,11 +5309,11 @@
       <c r="H132" s="5">
         <v>7</v>
       </c>
-      <c r="I132" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I132" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>112</v>
       </c>
@@ -5318,16 +5333,16 @@
         <v>7</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H133" s="5">
         <v>7</v>
       </c>
-      <c r="I133" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I133" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>115</v>
       </c>
@@ -5347,16 +5362,16 @@
         <v>7</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H134" s="5">
         <v>7</v>
       </c>
-      <c r="I134" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I134" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>54</v>
       </c>
@@ -5367,7 +5382,7 @@
         <v>51</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E135" s="5">
         <v>1810</v>
@@ -5381,7 +5396,7 @@
       <c r="H135" s="5">
         <v>3</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="I135" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5410,8 +5425,8 @@
       <c r="H136" s="5">
         <v>7</v>
       </c>
-      <c r="I136" s="5" t="s">
-        <v>237</v>
+      <c r="I136" s="11" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5439,8 +5454,8 @@
       <c r="H137" s="5">
         <v>7</v>
       </c>
-      <c r="I137" s="5" t="s">
-        <v>238</v>
+      <c r="I137" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5468,11 +5483,11 @@
       <c r="H138" s="5">
         <v>7</v>
       </c>
-      <c r="I138" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I138" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>64</v>
       </c>
@@ -5498,11 +5513,11 @@
       <c r="H139" s="5">
         <v>3</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="I139" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -5513,7 +5528,7 @@
         <v>129</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E140" s="5">
         <v>360</v>
@@ -5527,11 +5542,11 @@
       <c r="H140" s="5">
         <v>11</v>
       </c>
-      <c r="I140" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I140" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>54</v>
       </c>
@@ -5542,7 +5557,7 @@
         <v>51</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E141" s="5">
         <v>2020</v>
@@ -5556,11 +5571,11 @@
       <c r="H141" s="5">
         <v>3</v>
       </c>
-      <c r="I141" s="5" t="s">
+      <c r="I141" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>8</v>
       </c>
@@ -5571,7 +5586,7 @@
         <v>51</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E142" s="5">
         <v>1825</v>
@@ -5585,11 +5600,11 @@
       <c r="H142" s="5">
         <v>3</v>
       </c>
-      <c r="I142" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I142" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>14</v>
       </c>
@@ -5600,7 +5615,7 @@
         <v>51</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E143" s="5">
         <v>1825</v>
@@ -5614,11 +5629,11 @@
       <c r="H143" s="5">
         <v>3</v>
       </c>
-      <c r="I143" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I143" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>59</v>
       </c>
@@ -5643,22 +5658,22 @@
       <c r="H144" s="5">
         <v>3</v>
       </c>
-      <c r="I144" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I144" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="C145" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E145" s="5">
         <v>1825</v>
@@ -5672,11 +5687,11 @@
       <c r="H145" s="5">
         <v>3</v>
       </c>
-      <c r="I145" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I145" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>8</v>
       </c>
@@ -5687,7 +5702,7 @@
         <v>51</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E146" s="5">
         <f>2400+10</f>
@@ -5697,27 +5712,27 @@
         <v>3</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H146" s="5">
         <v>2</v>
       </c>
-      <c r="I146" s="5">
+      <c r="I146" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="E147" s="5">
         <f>2400+10</f>
@@ -5727,16 +5742,16 @@
         <v>3</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H147" s="5">
         <v>2</v>
       </c>
-      <c r="I147" s="5">
+      <c r="I147" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>145</v>
       </c>
@@ -5747,7 +5762,7 @@
         <v>51</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E148" s="5">
         <f>2400+10</f>
@@ -5762,11 +5777,11 @@
       <c r="H148" s="5">
         <v>3</v>
       </c>
-      <c r="I148" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I148" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>17</v>
       </c>
@@ -5777,7 +5792,7 @@
         <v>51</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E149" s="5">
         <f>2400+10</f>
@@ -5792,11 +5807,11 @@
       <c r="H149" s="5">
         <v>3</v>
       </c>
-      <c r="I149" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I149" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>54</v>
       </c>
@@ -5807,7 +5822,7 @@
         <v>51</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E150" s="5">
         <f>1060+35</f>
@@ -5817,27 +5832,27 @@
         <v>3</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H150" s="5">
         <v>7</v>
       </c>
-      <c r="I150" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I150" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="E151" s="5">
         <f>1840+5</f>
@@ -5847,16 +5862,16 @@
         <v>3</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H151" s="5">
         <v>2</v>
       </c>
-      <c r="I151" s="5">
+      <c r="I151" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>59</v>
       </c>
@@ -5882,22 +5897,22 @@
       <c r="H152" s="5">
         <v>3</v>
       </c>
-      <c r="I152" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I152" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="E153" s="5">
         <f>1650+35</f>
@@ -5907,27 +5922,27 @@
         <v>3</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H153" s="5">
         <v>2</v>
       </c>
-      <c r="I153" s="5" t="s">
+      <c r="I153" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="E154" s="5">
         <f>1650+35</f>
@@ -5937,16 +5952,16 @@
         <v>3</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H154" s="5">
         <v>2</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="I154" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>17</v>
       </c>
@@ -5957,7 +5972,7 @@
         <v>51</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E155" s="5">
         <v>3130</v>
@@ -5971,11 +5986,11 @@
       <c r="H155" s="5">
         <v>3</v>
       </c>
-      <c r="I155" s="5" t="s">
+      <c r="I155" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>54</v>
       </c>
@@ -5986,7 +6001,7 @@
         <v>51</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E156" s="5">
         <f>4680+50</f>
@@ -6001,11 +6016,11 @@
       <c r="H156" s="5">
         <v>3</v>
       </c>
-      <c r="I156" s="5" t="s">
+      <c r="I156" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>59</v>
       </c>
@@ -6031,11 +6046,11 @@
       <c r="H157" s="5">
         <v>2</v>
       </c>
-      <c r="I157" s="5" t="s">
+      <c r="I157" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>84</v>
       </c>
@@ -6060,11 +6075,11 @@
       <c r="H158" s="5">
         <v>4.8</v>
       </c>
-      <c r="I158" s="5" t="s">
+      <c r="I158" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>68</v>
       </c>
@@ -6089,11 +6104,11 @@
       <c r="H159" s="5">
         <v>4.8</v>
       </c>
-      <c r="I159" s="5" t="s">
+      <c r="I159" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>54</v>
       </c>
@@ -6118,11 +6133,11 @@
       <c r="H160" s="5">
         <v>3.5</v>
       </c>
-      <c r="I160" s="5" t="s">
+      <c r="I160" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>64</v>
       </c>
@@ -6148,11 +6163,11 @@
       <c r="H161" s="5">
         <v>7</v>
       </c>
-      <c r="I161" s="5" t="s">
+      <c r="I161" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>64</v>
       </c>
@@ -6177,11 +6192,11 @@
       <c r="H162" s="5">
         <v>7</v>
       </c>
-      <c r="I162" s="5" t="s">
+      <c r="I162" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>64</v>
       </c>
@@ -6207,11 +6222,11 @@
       <c r="H163" s="5">
         <v>7</v>
       </c>
-      <c r="I163" s="5" t="s">
+      <c r="I163" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>92</v>
       </c>
@@ -6236,11 +6251,11 @@
       <c r="H164" s="5">
         <v>7</v>
       </c>
-      <c r="I164" s="5" t="s">
+      <c r="I164" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>92</v>
       </c>
@@ -6266,11 +6281,11 @@
       <c r="H165" s="5">
         <v>7</v>
       </c>
-      <c r="I165" s="5" t="s">
+      <c r="I165" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>92</v>
       </c>
@@ -6295,11 +6310,11 @@
       <c r="H166" s="5">
         <v>7</v>
       </c>
-      <c r="I166" s="5" t="s">
+      <c r="I166" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>49</v>
       </c>
@@ -6324,11 +6339,11 @@
       <c r="H167" s="5">
         <v>3.5</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I167" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>14</v>
       </c>
@@ -6353,11 +6368,11 @@
       <c r="H168" s="5">
         <v>3</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="I168" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>98</v>
       </c>
@@ -6382,11 +6397,11 @@
       <c r="H169" s="5">
         <v>11</v>
       </c>
-      <c r="I169" s="5" t="s">
+      <c r="I169" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>98</v>
       </c>
@@ -6411,11 +6426,11 @@
       <c r="H170" s="5">
         <v>11</v>
       </c>
-      <c r="I170" s="5" t="s">
+      <c r="I170" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>98</v>
       </c>
@@ -6441,11 +6456,11 @@
       <c r="H171" s="5">
         <v>11</v>
       </c>
-      <c r="I171" s="5" t="s">
+      <c r="I171" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>107</v>
       </c>
@@ -6471,11 +6486,11 @@
       <c r="H172" s="5">
         <v>7</v>
       </c>
-      <c r="I172" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I172" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>54</v>
       </c>
@@ -6501,11 +6516,11 @@
       <c r="H173" s="5">
         <v>7</v>
       </c>
-      <c r="I173" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I173" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>14</v>
       </c>
@@ -6530,11 +6545,11 @@
       <c r="H174" s="5">
         <v>3</v>
       </c>
-      <c r="I174" s="5" t="s">
+      <c r="I174" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>112</v>
       </c>
@@ -6559,11 +6574,11 @@
       <c r="H175" s="5">
         <v>3</v>
       </c>
-      <c r="I175" s="5" t="s">
+      <c r="I175" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>115</v>
       </c>
@@ -6589,11 +6604,11 @@
       <c r="H176" s="5">
         <v>7</v>
       </c>
-      <c r="I176" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I176" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>112</v>
       </c>
@@ -6619,11 +6634,11 @@
       <c r="H177" s="5">
         <v>7</v>
       </c>
-      <c r="I177" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I177" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>119</v>
       </c>
@@ -6648,11 +6663,11 @@
       <c r="H178" s="5">
         <v>3</v>
       </c>
-      <c r="I178" s="5" t="s">
+      <c r="I178" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>49</v>
       </c>
@@ -6677,11 +6692,11 @@
       <c r="H179" s="5">
         <v>3</v>
       </c>
-      <c r="I179" s="5" t="s">
+      <c r="I179" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>8</v>
       </c>
@@ -6692,7 +6707,7 @@
         <v>51</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E180" s="5">
         <v>1045</v>
@@ -6706,22 +6721,22 @@
       <c r="H180" s="5">
         <v>2</v>
       </c>
-      <c r="I180" s="5">
+      <c r="I180" s="11">
         <v>561349001</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E181" s="5">
         <v>1045</v>
@@ -6735,11 +6750,11 @@
       <c r="H181" s="5">
         <v>2</v>
       </c>
-      <c r="I181" s="5">
+      <c r="I181" s="11">
         <v>561349001</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>145</v>
       </c>
@@ -6764,11 +6779,11 @@
       <c r="H182" s="5">
         <v>7</v>
       </c>
-      <c r="I182" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I182" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>92</v>
       </c>
@@ -6793,11 +6808,11 @@
       <c r="H183" s="5">
         <v>7</v>
       </c>
-      <c r="I183" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I183" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>145</v>
       </c>
@@ -6817,16 +6832,16 @@
         <v>3</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H184" s="5">
         <v>7</v>
       </c>
-      <c r="I184" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I184" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>119</v>
       </c>
@@ -6846,16 +6861,16 @@
         <v>3</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H185" s="5">
         <v>3.5</v>
       </c>
-      <c r="I185" s="5" t="s">
+      <c r="I185" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>8</v>
       </c>
@@ -6880,11 +6895,11 @@
       <c r="H186" s="5">
         <v>3</v>
       </c>
-      <c r="I186" s="5" t="s">
+      <c r="I186" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>14</v>
       </c>
@@ -6909,11 +6924,11 @@
       <c r="H187" s="5">
         <v>3</v>
       </c>
-      <c r="I187" s="5" t="s">
+      <c r="I187" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>17</v>
       </c>
@@ -6938,11 +6953,11 @@
       <c r="H188" s="5">
         <v>3</v>
       </c>
-      <c r="I188" s="5" t="s">
+      <c r="I188" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>133</v>
       </c>
@@ -6967,22 +6982,22 @@
       <c r="H189" s="5">
         <v>4.8</v>
       </c>
-      <c r="I189" s="5" t="s">
+      <c r="I189" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="4" t="s">
+      <c r="B190" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E190" s="5">
         <v>185</v>
@@ -6996,11 +7011,11 @@
       <c r="H190" s="5">
         <v>4.8</v>
       </c>
-      <c r="I190" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I190" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>21</v>
       </c>
@@ -7025,11 +7040,11 @@
       <c r="H191" s="5">
         <v>3.5</v>
       </c>
-      <c r="I191" s="5" t="s">
+      <c r="I191" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>27</v>
       </c>
@@ -7054,11 +7069,11 @@
       <c r="H192" s="5">
         <v>3.5</v>
       </c>
-      <c r="I192" s="5" t="s">
+      <c r="I192" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>30</v>
       </c>
@@ -7083,11 +7098,11 @@
       <c r="H193" s="5">
         <v>3.5</v>
       </c>
-      <c r="I193" s="5" t="s">
+      <c r="I193" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>33</v>
       </c>
@@ -7112,11 +7127,11 @@
       <c r="H194" s="5">
         <v>3.5</v>
       </c>
-      <c r="I194" s="5" t="s">
+      <c r="I194" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>35</v>
       </c>
@@ -7124,7 +7139,7 @@
         <v>36</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>38</v>
@@ -7141,11 +7156,11 @@
       <c r="H195" s="5">
         <v>3.5</v>
       </c>
-      <c r="I195" s="5" t="s">
+      <c r="I195" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>35</v>
       </c>
@@ -7153,7 +7168,7 @@
         <v>36</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>38</v>
@@ -7168,11 +7183,11 @@
       <c r="H196" s="5">
         <v>5</v>
       </c>
-      <c r="I196" s="5" t="s">
+      <c r="I196" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>41</v>
       </c>
@@ -7197,11 +7212,11 @@
       <c r="H197" s="5">
         <v>5</v>
       </c>
-      <c r="I197" s="5" t="s">
+      <c r="I197" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>45</v>
       </c>
@@ -7226,11 +7241,11 @@
       <c r="H198" s="5">
         <v>5</v>
       </c>
-      <c r="I198" s="5" t="s">
+      <c r="I198" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>8</v>
       </c>
@@ -7255,11 +7270,11 @@
       <c r="H199" s="5">
         <v>3</v>
       </c>
-      <c r="I199" s="5" t="s">
+      <c r="I199" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>14</v>
       </c>
@@ -7284,11 +7299,11 @@
       <c r="H200" s="5">
         <v>3</v>
       </c>
-      <c r="I200" s="5" t="s">
+      <c r="I200" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>17</v>
       </c>
@@ -7313,11 +7328,11 @@
       <c r="H201" s="5">
         <v>3</v>
       </c>
-      <c r="I201" s="5" t="s">
+      <c r="I201" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>21</v>
       </c>
@@ -7342,11 +7357,11 @@
       <c r="H202" s="5">
         <v>3.5</v>
       </c>
-      <c r="I202" s="5" t="s">
+      <c r="I202" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>27</v>
       </c>
@@ -7371,11 +7386,11 @@
       <c r="H203" s="5">
         <v>3.5</v>
       </c>
-      <c r="I203" s="5" t="s">
+      <c r="I203" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>30</v>
       </c>
@@ -7400,11 +7415,11 @@
       <c r="H204" s="5">
         <v>3.5</v>
       </c>
-      <c r="I204" s="5" t="s">
+      <c r="I204" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>33</v>
       </c>
@@ -7429,11 +7444,11 @@
       <c r="H205" s="5">
         <v>3.5</v>
       </c>
-      <c r="I205" s="5" t="s">
+      <c r="I205" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>35</v>
       </c>
@@ -7458,11 +7473,11 @@
       <c r="H206" s="5">
         <v>3.5</v>
       </c>
-      <c r="I206" s="5" t="s">
+      <c r="I206" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>35</v>
       </c>
@@ -7485,11 +7500,11 @@
       <c r="H207" s="5">
         <v>5</v>
       </c>
-      <c r="I207" s="5" t="s">
+      <c r="I207" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>41</v>
       </c>
@@ -7514,11 +7529,11 @@
       <c r="H208" s="5">
         <v>5</v>
       </c>
-      <c r="I208" s="5" t="s">
+      <c r="I208" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>45</v>
       </c>
@@ -7543,12 +7558,19 @@
       <c r="H209" s="5">
         <v>5</v>
       </c>
-      <c r="I209" s="5" t="s">
+      <c r="I209" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A1:I209" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="39000048"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gad-shaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198D758-D094-41ED-83DB-42E6DA11C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B507753-A9F9-4323-A072-3211066C836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$210</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="275">
   <si>
     <t>Wire No.</t>
   </si>
@@ -1442,10 +1442,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4317,59 +4317,59 @@
         <v>2</v>
       </c>
       <c r="I98" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E99" s="8">
+        <v>1610</v>
+      </c>
+      <c r="F99" s="8">
+        <v>3</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H99" s="8">
+        <v>2</v>
+      </c>
+      <c r="I99" s="12" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
+    <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D99" s="6" t="s">
+      <c r="C100" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E100" s="5">
         <v>1610</v>
       </c>
-      <c r="F99" s="5">
-        <v>3</v>
-      </c>
-      <c r="G99" s="11" t="s">
+      <c r="F100" s="5">
+        <v>3</v>
+      </c>
+      <c r="G100" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="H99" s="5">
-        <v>2</v>
-      </c>
-      <c r="I99" s="11">
-        <v>561349000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E100" s="5">
-        <v>960</v>
-      </c>
-      <c r="F100" s="5">
-        <v>5</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="H100" s="5">
         <v>2</v>
@@ -4380,16 +4380,16 @@
     </row>
     <row r="101" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E101" s="5">
         <v>960</v>
@@ -4407,28 +4407,27 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="E102" s="5">
-        <f>1320+5</f>
-        <v>1325</v>
+        <v>960</v>
       </c>
       <c r="F102" s="5">
-        <v>3</v>
-      </c>
-      <c r="G102" s="11">
-        <v>39000048</v>
+        <v>5</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H102" s="5">
         <v>2</v>
@@ -4437,34 +4436,34 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E103" s="5">
         <f>1320+5</f>
         <v>1325</v>
       </c>
       <c r="F103" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103" s="11">
+        <v>39000048</v>
+      </c>
+      <c r="H103" s="5">
+        <v>2</v>
+      </c>
+      <c r="I103" s="11">
         <v>561349000</v>
-      </c>
-      <c r="H103" s="5">
-        <v>3</v>
-      </c>
-      <c r="I103" s="11">
-        <v>39000048</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4481,63 +4480,63 @@
         <v>61</v>
       </c>
       <c r="E104" s="5">
-        <v>520</v>
+        <f>1320+5</f>
+        <v>1325</v>
       </c>
       <c r="F104" s="5">
         <v>2</v>
       </c>
-      <c r="G104" s="11" t="s">
-        <v>137</v>
+      <c r="G104" s="11">
+        <v>561349000</v>
       </c>
       <c r="H104" s="5">
-        <v>7</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>203</v>
+        <v>3</v>
+      </c>
+      <c r="I104" s="11">
+        <v>39000048</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E105" s="5">
-        <f>1550+5</f>
-        <v>1555</v>
+        <v>520</v>
       </c>
       <c r="F105" s="5">
         <v>2</v>
       </c>
-      <c r="G105" s="11">
-        <v>561349000</v>
+      <c r="G105" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H105" s="5">
-        <v>3</v>
-      </c>
-      <c r="I105" s="11">
-        <v>39000048</v>
+        <v>7</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E106" s="5">
         <f>1550+5</f>
@@ -4558,50 +4557,51 @@
     </row>
     <row r="107" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="5">
+        <f>1550+5</f>
+        <v>1555</v>
+      </c>
+      <c r="F107" s="5">
+        <v>2</v>
+      </c>
+      <c r="G107" s="11">
+        <v>561349000</v>
+      </c>
+      <c r="H107" s="5">
+        <v>3</v>
+      </c>
+      <c r="I107" s="11">
+        <v>39000048</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D107" s="6" t="s">
+      <c r="C108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E108" s="5">
         <f>1320+10</f>
         <v>1330</v>
       </c>
-      <c r="F107" s="5">
-        <v>2</v>
-      </c>
-      <c r="G107" s="11">
-        <v>561349000</v>
-      </c>
-      <c r="H107" s="5">
-        <v>3</v>
-      </c>
-      <c r="I107" s="11">
-        <v>39000048</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E108" s="5">
-        <v>920</v>
-      </c>
       <c r="F108" s="5">
         <v>2</v>
       </c>
@@ -4609,83 +4609,83 @@
         <v>561349000</v>
       </c>
       <c r="H108" s="5">
-        <v>5</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="I108" s="11">
+        <v>39000048</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E109" s="5">
+        <v>920</v>
+      </c>
+      <c r="F109" s="5">
+        <v>2</v>
+      </c>
+      <c r="G109" s="11">
+        <v>561349000</v>
+      </c>
+      <c r="H109" s="5">
+        <v>5</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D109" s="6" t="s">
+      <c r="C110" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E110" s="5">
         <f>920-15</f>
         <v>905</v>
       </c>
-      <c r="F109" s="5">
-        <v>2</v>
-      </c>
-      <c r="G109" s="11">
+      <c r="F110" s="5">
+        <v>2</v>
+      </c>
+      <c r="G110" s="11">
         <v>561349000</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H110" s="5">
         <v>5</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="I110" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
+    <row r="111" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="6" t="s">
+      <c r="C111" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="E110" s="5">
-        <v>1830</v>
-      </c>
-      <c r="F110" s="5">
-        <v>3</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="H110" s="5">
-        <v>2</v>
-      </c>
-      <c r="I110" s="11">
-        <v>561349000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E111" s="5">
         <v>1830</v>
@@ -4693,8 +4693,8 @@
       <c r="F111" s="5">
         <v>3</v>
       </c>
-      <c r="G111" s="11">
-        <v>39000048</v>
+      <c r="G111" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="H111" s="5">
         <v>2</v>
@@ -4705,50 +4705,50 @@
     </row>
     <row r="112" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1830</v>
+      </c>
+      <c r="F112" s="5">
+        <v>3</v>
+      </c>
+      <c r="G112" s="11">
+        <v>39000048</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2</v>
+      </c>
+      <c r="I112" s="11">
+        <v>561349000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D112" s="6" t="s">
+      <c r="C113" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E113" s="5">
         <f>2410+10</f>
         <v>2420</v>
       </c>
-      <c r="F112" s="5">
-        <v>3</v>
-      </c>
-      <c r="G112" s="11">
-        <v>39000048</v>
-      </c>
-      <c r="H112" s="5">
-        <v>2</v>
-      </c>
-      <c r="I112" s="11">
-        <v>561349000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E113" s="5">
-        <v>2410</v>
-      </c>
       <c r="F113" s="5">
         <v>3</v>
       </c>
@@ -4762,47 +4762,47 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="E114" s="5">
-        <v>960</v>
+        <v>2410</v>
       </c>
       <c r="F114" s="5">
-        <v>2</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="G114" s="11">
+        <v>39000048</v>
       </c>
       <c r="H114" s="5">
-        <v>3</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>215</v>
+        <v>2</v>
+      </c>
+      <c r="I114" s="11">
+        <v>561349000</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E115" s="5">
         <v>960</v>
@@ -4822,16 +4822,16 @@
     </row>
     <row r="116" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="E116" s="5">
         <v>960</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="117" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="E117" s="5">
         <v>960</v>
@@ -4880,19 +4880,19 @@
     </row>
     <row r="118" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="E118" s="5">
-        <v>1520</v>
+        <v>960</v>
       </c>
       <c r="F118" s="5">
         <v>2</v>
@@ -4909,19 +4909,19 @@
     </row>
     <row r="119" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E119" s="5">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="F119" s="5">
         <v>2</v>
@@ -4938,16 +4938,16 @@
     </row>
     <row r="120" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E120" s="5">
         <v>1525</v>
@@ -4967,16 +4967,16 @@
     </row>
     <row r="121" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="E121" s="5">
         <v>1525</v>
@@ -4996,45 +4996,45 @@
     </row>
     <row r="122" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="E122" s="5">
-        <v>1665</v>
+        <v>1525</v>
       </c>
       <c r="F122" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G122" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H122" s="5">
+        <v>3</v>
+      </c>
+      <c r="I122" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="H122" s="5">
-        <v>2</v>
-      </c>
-      <c r="I122" s="11">
-        <v>561349000</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E123" s="5">
         <v>1665</v>
@@ -5054,16 +5054,16 @@
     </row>
     <row r="124" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E124" s="5">
         <v>1665</v>
@@ -5083,19 +5083,19 @@
     </row>
     <row r="125" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E125" s="5">
-        <v>1100</v>
+        <v>1665</v>
       </c>
       <c r="F125" s="5">
         <v>3</v>
@@ -5112,16 +5112,16 @@
     </row>
     <row r="126" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="E126" s="5">
         <v>1100</v>
@@ -5141,16 +5141,16 @@
     </row>
     <row r="127" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E127" s="5">
         <v>1100</v>
@@ -5170,31 +5170,31 @@
     </row>
     <row r="128" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="E128" s="5">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="F128" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="H128" s="5">
-        <v>7</v>
-      </c>
-      <c r="I128" s="11" t="s">
-        <v>227</v>
+        <v>2</v>
+      </c>
+      <c r="I128" s="11">
+        <v>561349000</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5211,19 +5211,19 @@
         <v>16</v>
       </c>
       <c r="E129" s="5">
-        <v>605</v>
+        <v>300</v>
       </c>
       <c r="F129" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="H129" s="5">
         <v>7</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5240,7 +5240,7 @@
         <v>16</v>
       </c>
       <c r="E130" s="5">
-        <v>1150</v>
+        <v>605</v>
       </c>
       <c r="F130" s="5">
         <v>3</v>
@@ -5257,63 +5257,63 @@
     </row>
     <row r="131" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E131" s="5">
-        <v>1610</v>
+        <v>1150</v>
       </c>
       <c r="F131" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="H131" s="5">
         <v>7</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E132" s="5">
-        <v>650</v>
+        <v>1610</v>
       </c>
       <c r="F132" s="5">
-        <v>3</v>
-      </c>
-      <c r="G132" s="11">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H132" s="5">
         <v>7</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>112</v>
       </c>
@@ -5327,33 +5327,33 @@
         <v>114</v>
       </c>
       <c r="E133" s="5">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="F133" s="5">
-        <v>7</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="G133" s="11">
+        <v>39000048</v>
       </c>
       <c r="H133" s="5">
         <v>7</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E134" s="5">
         <v>610</v>
@@ -5362,88 +5362,88 @@
         <v>7</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H134" s="5">
         <v>7</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="E135" s="5">
-        <v>1810</v>
+        <v>610</v>
       </c>
       <c r="F135" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="H135" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="E136" s="5">
-        <v>500</v>
+        <v>1810</v>
       </c>
       <c r="F136" s="5">
-        <v>3</v>
-      </c>
-      <c r="G136" s="11">
-        <v>39000048</v>
+        <v>2</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H136" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E137" s="5">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="F137" s="5">
         <v>3</v>
@@ -5455,24 +5455,24 @@
         <v>7</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E138" s="5">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="F138" s="5">
         <v>3</v>
@@ -5484,10 +5484,10 @@
         <v>7</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>64</v>
       </c>
@@ -5501,95 +5501,95 @@
         <v>66</v>
       </c>
       <c r="E139" s="5">
+        <v>445</v>
+      </c>
+      <c r="F139" s="5">
+        <v>3</v>
+      </c>
+      <c r="G139" s="11">
+        <v>39000048</v>
+      </c>
+      <c r="H139" s="5">
+        <v>7</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E140" s="5">
         <f>2220-140</f>
         <v>2080</v>
       </c>
-      <c r="F139" s="5">
-        <v>2</v>
-      </c>
-      <c r="G139" s="11" t="s">
+      <c r="F140" s="5">
+        <v>2</v>
+      </c>
+      <c r="G140" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H139" s="5">
-        <v>3</v>
-      </c>
-      <c r="I139" s="11" t="s">
+      <c r="H140" s="5">
+        <v>3</v>
+      </c>
+      <c r="I140" s="11" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E140" s="5">
-        <v>360</v>
-      </c>
-      <c r="F140" s="5">
-        <v>5</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H140" s="5">
-        <v>11</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E141" s="5">
-        <v>2020</v>
+        <v>360</v>
       </c>
       <c r="F141" s="5">
-        <v>2</v>
-      </c>
-      <c r="G141" s="11">
-        <v>561349000</v>
+        <v>5</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="H141" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E142" s="5">
-        <v>1825</v>
+        <v>2020</v>
       </c>
       <c r="F142" s="5">
         <v>2</v>
@@ -5601,21 +5601,21 @@
         <v>3</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E143" s="5">
         <v>1825</v>
@@ -5635,16 +5635,16 @@
     </row>
     <row r="144" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="E144" s="5">
         <v>1825</v>
@@ -5664,16 +5664,16 @@
     </row>
     <row r="145" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="E145" s="5">
         <v>1825</v>
@@ -5693,46 +5693,45 @@
     </row>
     <row r="146" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E146" s="5">
-        <f>2400+10</f>
-        <v>2410</v>
+        <v>1825</v>
       </c>
       <c r="F146" s="5">
-        <v>3</v>
-      </c>
-      <c r="G146" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G146" s="11">
+        <v>561349000</v>
+      </c>
+      <c r="H146" s="5">
+        <v>3</v>
+      </c>
+      <c r="I146" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="H146" s="5">
-        <v>2</v>
-      </c>
-      <c r="I146" s="11">
-        <v>561349000</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E147" s="5">
         <f>2400+10</f>
@@ -5753,46 +5752,46 @@
     </row>
     <row r="148" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E148" s="5">
         <f>2400+10</f>
         <v>2410</v>
       </c>
       <c r="F148" s="5">
-        <v>2</v>
-      </c>
-      <c r="G148" s="11">
+        <v>3</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H148" s="5">
+        <v>2</v>
+      </c>
+      <c r="I148" s="11">
         <v>561349000</v>
-      </c>
-      <c r="H148" s="5">
-        <v>3</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E149" s="5">
         <f>2400+10</f>
@@ -5813,136 +5812,136 @@
     </row>
     <row r="150" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E150" s="5">
+        <f>2400+10</f>
+        <v>2410</v>
+      </c>
+      <c r="F150" s="5">
+        <v>2</v>
+      </c>
+      <c r="G150" s="11">
+        <v>561349000</v>
+      </c>
+      <c r="H150" s="5">
+        <v>3</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D150" s="6" t="s">
+      <c r="C151" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E151" s="5">
         <f>1060+35</f>
         <v>1095</v>
       </c>
-      <c r="F150" s="5">
-        <v>3</v>
-      </c>
-      <c r="G150" s="11" t="s">
+      <c r="F151" s="5">
+        <v>3</v>
+      </c>
+      <c r="G151" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H151" s="5">
         <v>7</v>
       </c>
-      <c r="I150" s="11" t="s">
+      <c r="I151" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="s">
+    <row r="152" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D151" s="6" t="s">
+      <c r="C152" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E152" s="5">
         <f>1840+5</f>
         <v>1845</v>
       </c>
-      <c r="F151" s="5">
-        <v>3</v>
-      </c>
-      <c r="G151" s="11" t="s">
+      <c r="F152" s="5">
+        <v>3</v>
+      </c>
+      <c r="G152" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="H151" s="5">
-        <v>2</v>
-      </c>
-      <c r="I151" s="11">
+      <c r="H152" s="5">
+        <v>2</v>
+      </c>
+      <c r="I152" s="11">
         <v>561349000</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="4" t="s">
+    <row r="153" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D152" s="6" t="s">
+      <c r="C153" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E153" s="5">
         <f>1825+25</f>
         <v>1850</v>
       </c>
-      <c r="F152" s="5">
-        <v>3</v>
-      </c>
-      <c r="G152" s="11">
+      <c r="F153" s="5">
+        <v>3</v>
+      </c>
+      <c r="G153" s="11">
         <v>561349000</v>
       </c>
-      <c r="H152" s="5">
-        <v>3</v>
-      </c>
-      <c r="I152" s="11" t="s">
+      <c r="H153" s="5">
+        <v>3</v>
+      </c>
+      <c r="I153" s="11" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E153" s="5">
-        <f>1650+35</f>
-        <v>1685</v>
-      </c>
-      <c r="F153" s="5">
-        <v>3</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="H153" s="5">
-        <v>2</v>
-      </c>
-      <c r="I153" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E154" s="5">
         <f>1650+35</f>
@@ -5963,134 +5962,135 @@
     </row>
     <row r="155" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E155" s="5">
-        <v>3130</v>
+        <f>1650+35</f>
+        <v>1685</v>
       </c>
       <c r="F155" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G155" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H155" s="5">
+        <v>2</v>
+      </c>
+      <c r="I155" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="H155" s="5">
-        <v>3</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E156" s="5">
+        <v>3130</v>
+      </c>
+      <c r="F156" s="5">
+        <v>2</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H156" s="5">
+        <v>3</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B157" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D156" s="6" t="s">
+      <c r="C157" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E157" s="5">
         <f>4680+50</f>
         <v>4730</v>
       </c>
-      <c r="F156" s="5">
-        <v>3</v>
-      </c>
-      <c r="G156" s="11" t="s">
+      <c r="F157" s="5">
+        <v>3</v>
+      </c>
+      <c r="G157" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H156" s="5">
-        <v>3</v>
-      </c>
-      <c r="I156" s="11" t="s">
+      <c r="H157" s="5">
+        <v>3</v>
+      </c>
+      <c r="I157" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="4" t="s">
+    <row r="158" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B158" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D157" s="6" t="s">
+      <c r="C158" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E158" s="5">
         <f>2115+20</f>
         <v>2135</v>
       </c>
-      <c r="F157" s="5">
-        <v>3</v>
-      </c>
-      <c r="G157" s="11" t="s">
+      <c r="F158" s="5">
+        <v>3</v>
+      </c>
+      <c r="G158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H157" s="5">
-        <v>2</v>
-      </c>
-      <c r="I157" s="11" t="s">
+      <c r="H158" s="5">
+        <v>2</v>
+      </c>
+      <c r="I158" s="11" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E158" s="5">
-        <v>1470</v>
-      </c>
-      <c r="F158" s="5">
-        <v>3</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H158" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E159" s="5">
         <v>1470</v>
@@ -6110,49 +6110,48 @@
     </row>
     <row r="160" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E160" s="5">
-        <v>1035</v>
+        <v>1470</v>
       </c>
       <c r="F160" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H160" s="5">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E161" s="5">
-        <f>390+100</f>
-        <v>490</v>
+        <v>1035</v>
       </c>
       <c r="F161" s="5">
         <v>2</v>
@@ -6161,10 +6160,10 @@
         <v>62</v>
       </c>
       <c r="H161" s="5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6181,19 +6180,20 @@
         <v>66</v>
       </c>
       <c r="E162" s="5">
-        <v>560</v>
+        <f>390+100</f>
+        <v>490</v>
       </c>
       <c r="F162" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H162" s="5">
         <v>7</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6210,49 +6210,49 @@
         <v>66</v>
       </c>
       <c r="E163" s="5">
+        <v>560</v>
+      </c>
+      <c r="F163" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="5">
+        <v>7</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E164" s="5">
         <f>285+15+100</f>
         <v>400</v>
       </c>
-      <c r="F163" s="5">
-        <v>3</v>
-      </c>
-      <c r="G163" s="11" t="s">
+      <c r="F164" s="5">
+        <v>3</v>
+      </c>
+      <c r="G164" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="H163" s="5">
-        <v>7</v>
-      </c>
-      <c r="I163" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E164" s="5">
-        <v>625</v>
-      </c>
-      <c r="F164" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="H164" s="5">
         <v>7</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6269,20 +6269,19 @@
         <v>29</v>
       </c>
       <c r="E165" s="5">
-        <f>230+100</f>
-        <v>330</v>
+        <v>625</v>
       </c>
       <c r="F165" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H165" s="5">
         <v>7</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6299,13 +6298,14 @@
         <v>29</v>
       </c>
       <c r="E166" s="5">
-        <v>415</v>
+        <f>230+100</f>
+        <v>330</v>
       </c>
       <c r="F166" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H166" s="5">
         <v>7</v>
@@ -6316,89 +6316,89 @@
     </row>
     <row r="167" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E167" s="5">
-        <v>185</v>
+        <v>415</v>
       </c>
       <c r="F167" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="H167" s="5">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E168" s="5">
         <v>185</v>
       </c>
       <c r="F168" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G168" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H168" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I168" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="H168" s="5">
-        <v>3</v>
-      </c>
-      <c r="I168" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E169" s="5">
-        <v>480</v>
+        <v>185</v>
       </c>
       <c r="F169" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="H169" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6415,19 +6415,19 @@
         <v>38</v>
       </c>
       <c r="E170" s="5">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="F170" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H170" s="5">
         <v>11</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6444,64 +6444,63 @@
         <v>38</v>
       </c>
       <c r="E171" s="5">
+        <v>310</v>
+      </c>
+      <c r="F171" s="5">
+        <v>7</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H171" s="5">
+        <v>11</v>
+      </c>
+      <c r="I171" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E172" s="5">
         <f>425+100</f>
         <v>525</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F172" s="5">
         <v>5</v>
       </c>
-      <c r="G171" s="11" t="s">
+      <c r="G172" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H172" s="5">
         <v>11</v>
       </c>
-      <c r="I171" s="11" t="s">
+      <c r="I172" s="11" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E172" s="5">
-        <f>730+100</f>
-        <v>830</v>
-      </c>
-      <c r="F172" s="5">
-        <v>2</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H172" s="5">
-        <v>7</v>
-      </c>
-      <c r="I172" s="11" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E173" s="5">
         <f>730+100</f>
@@ -6517,24 +6516,25 @@
         <v>7</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E174" s="5">
-        <v>190</v>
+        <f>730+100</f>
+        <v>830</v>
       </c>
       <c r="F174" s="5">
         <v>2</v>
@@ -6543,24 +6543,24 @@
         <v>62</v>
       </c>
       <c r="H174" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="E175" s="5">
         <v>190</v>
@@ -6580,46 +6580,45 @@
     </row>
     <row r="176" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E176" s="5">
-        <f>1130+100</f>
-        <v>1230</v>
+        <v>190</v>
       </c>
       <c r="F176" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H176" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>258</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E177" s="5">
         <f>1130+100</f>
@@ -6635,50 +6634,51 @@
         <v>7</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E178" s="5">
-        <v>220</v>
+        <f>1130+100</f>
+        <v>1230</v>
       </c>
       <c r="F178" s="5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H178" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E179" s="5">
         <v>220</v>
@@ -6698,45 +6698,45 @@
     </row>
     <row r="180" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="E180" s="5">
-        <v>1045</v>
+        <v>220</v>
       </c>
       <c r="F180" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H180" s="5">
-        <v>2</v>
-      </c>
-      <c r="I180" s="11">
-        <v>561349001</v>
+        <v>3</v>
+      </c>
+      <c r="I180" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E181" s="5">
         <v>1045</v>
@@ -6756,19 +6756,19 @@
     </row>
     <row r="182" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="E182" s="5">
-        <v>670</v>
+        <v>1045</v>
       </c>
       <c r="F182" s="5">
         <v>3.5</v>
@@ -6777,62 +6777,62 @@
         <v>13</v>
       </c>
       <c r="H182" s="5">
-        <v>7</v>
-      </c>
-      <c r="I182" s="11" t="s">
-        <v>262</v>
+        <v>2</v>
+      </c>
+      <c r="I182" s="11">
+        <v>561349001</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="E183" s="5">
-        <v>370</v>
+        <v>670</v>
       </c>
       <c r="F183" s="5">
-        <v>2</v>
-      </c>
-      <c r="G183" s="11">
-        <v>561349001</v>
+        <v>3.5</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H183" s="5">
         <v>7</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="E184" s="5">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="F184" s="5">
-        <v>3</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>264</v>
+        <v>2</v>
+      </c>
+      <c r="G184" s="11">
+        <v>561349001</v>
       </c>
       <c r="H184" s="5">
         <v>7</v>
@@ -6843,19 +6843,19 @@
     </row>
     <row r="185" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E185" s="5">
-        <v>950</v>
+        <v>285</v>
       </c>
       <c r="F185" s="5">
         <v>3</v>
@@ -6864,36 +6864,36 @@
         <v>264</v>
       </c>
       <c r="H185" s="5">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="E186" s="5">
-        <v>425</v>
+        <v>950</v>
       </c>
       <c r="F186" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="H186" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I186" s="11" t="s">
         <v>13</v>
@@ -6901,16 +6901,16 @@
     </row>
     <row r="187" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E187" s="5">
         <v>425</v>
@@ -6930,16 +6930,16 @@
     </row>
     <row r="188" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E188" s="5">
         <v>425</v>
@@ -6948,7 +6948,7 @@
         <v>5</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H188" s="5">
         <v>3</v>
@@ -6959,45 +6959,45 @@
     </row>
     <row r="189" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E189" s="5">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="F189" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H189" s="5">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="E190" s="5">
         <v>185</v>
@@ -7017,19 +7017,19 @@
     </row>
     <row r="191" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="E191" s="5">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="F191" s="5">
         <v>3.5</v>
@@ -7038,24 +7038,24 @@
         <v>25</v>
       </c>
       <c r="H191" s="5">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E192" s="5">
         <v>158</v>
@@ -7075,16 +7075,16 @@
     </row>
     <row r="193" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E193" s="5">
         <v>158</v>
@@ -7104,16 +7104,16 @@
     </row>
     <row r="194" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E194" s="5">
         <v>158</v>
@@ -7133,31 +7133,31 @@
     </row>
     <row r="195" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E195" s="5">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="F195" s="5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H195" s="5">
         <v>3.5</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7174,60 +7174,60 @@
         <v>38</v>
       </c>
       <c r="E196" s="5">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="F196" s="5">
         <v>7</v>
       </c>
-      <c r="G196" s="11"/>
+      <c r="G196" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="H196" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E197" s="5">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F197" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G197" s="11"/>
       <c r="H197" s="5">
         <v>5</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E198" s="5">
         <v>155</v>
@@ -7242,50 +7242,50 @@
         <v>5</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E199" s="5">
-        <v>425</v>
+        <v>155</v>
       </c>
       <c r="F199" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H199" s="5">
         <v>5</v>
       </c>
-      <c r="G199" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H199" s="5">
-        <v>3</v>
-      </c>
       <c r="I199" s="11" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E200" s="5">
         <v>425</v>
@@ -7305,16 +7305,16 @@
     </row>
     <row r="201" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E201" s="5">
         <v>425</v>
@@ -7323,7 +7323,7 @@
         <v>5</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H201" s="5">
         <v>3</v>
@@ -7334,45 +7334,45 @@
     </row>
     <row r="202" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E202" s="5">
-        <v>158</v>
+        <v>425</v>
       </c>
       <c r="F202" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H202" s="5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E203" s="5">
         <v>158</v>
@@ -7392,16 +7392,16 @@
     </row>
     <row r="204" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E204" s="5">
         <v>158</v>
@@ -7421,16 +7421,16 @@
     </row>
     <row r="205" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E205" s="5">
         <v>158</v>
@@ -7450,31 +7450,31 @@
     </row>
     <row r="206" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E206" s="5">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="F206" s="5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H206" s="5">
         <v>3.5</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7491,60 +7491,60 @@
         <v>38</v>
       </c>
       <c r="E207" s="5">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="F207" s="5">
         <v>7</v>
       </c>
-      <c r="G207" s="11"/>
+      <c r="G207" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="H207" s="5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E208" s="5">
         <v>175</v>
       </c>
       <c r="F208" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G208" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G208" s="11"/>
       <c r="H208" s="5">
         <v>5</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E209" s="5">
         <v>175</v>
@@ -7559,12 +7559,41 @@
         <v>5</v>
       </c>
       <c r="I209" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E210" s="5">
+        <v>175</v>
+      </c>
+      <c r="F210" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G210" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H210" s="5">
+        <v>5</v>
+      </c>
+      <c r="I210" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:I209" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:I210" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="39000048"/>

--- a/master.xlsx
+++ b/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gad-shaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B507753-A9F9-4323-A072-3211066C836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2250A034-6D82-499E-AFA1-E2D0C8465500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,12 +68,6 @@
     <t>STRIPPING ± 0.5 MM</t>
   </si>
   <si>
-    <t>TERMINAL</t>
-  </si>
-  <si>
-    <t>Terminal</t>
-  </si>
-  <si>
     <t>SFG00952</t>
   </si>
   <si>
@@ -759,9 +753,6 @@
     <t>UL1569AWG22RED/ORANGE(BARE)</t>
   </si>
   <si>
-    <t>Red / Orenge</t>
-  </si>
-  <si>
     <t>SPL-7
 63130-2 …B</t>
   </si>
@@ -998,13 +989,22 @@
   </si>
   <si>
     <t>UL1569AWG22ORANGE/BLUE(BARE)</t>
+  </si>
+  <si>
+    <t>TERMINAL SIDE-B</t>
+  </si>
+  <si>
+    <t>TERMINAL SIDE-A</t>
+  </si>
+  <si>
+    <t>Red / Orange</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,6 +1051,23 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1128,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,6 +1178,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,11 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,27 +1503,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="5">
         <v>425</v>
@@ -1508,27 +1532,27 @@
         <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="5">
         <v>425</v>
@@ -1537,27 +1561,27 @@
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5">
         <v>3</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="5">
         <v>425</v>
@@ -1566,27 +1590,27 @@
         <v>5</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="5">
         <v>158</v>
@@ -1595,27 +1619,27 @@
         <v>3.5</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="5">
         <v>158</v>
@@ -1624,27 +1648,27 @@
         <v>3.5</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5">
         <v>3.5</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="5">
         <v>158</v>
@@ -1653,27 +1677,27 @@
         <v>3.5</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="5">
         <v>3.5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5">
         <v>158</v>
@@ -1682,27 +1706,27 @@
         <v>3.5</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5">
         <v>3.5</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="5">
         <v>295</v>
@@ -1711,27 +1735,27 @@
         <v>7</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="5">
         <v>3.5</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="5">
         <v>175</v>
@@ -1744,21 +1768,21 @@
         <v>5</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="5">
         <v>175</v>
@@ -1767,27 +1791,27 @@
         <v>3.5</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="5">
         <v>5</v>
       </c>
       <c r="I11" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="5">
         <v>175</v>
@@ -1796,27 +1820,27 @@
         <v>3.5</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="5">
         <v>5</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E13" s="5">
         <v>370</v>
@@ -1825,27 +1849,27 @@
         <v>3.5</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="5">
         <v>3.5</v>
       </c>
       <c r="I13" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5">
         <v>370</v>
@@ -1854,27 +1878,27 @@
         <v>3.5</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" s="5">
         <v>3.5</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E15" s="5">
         <v>370</v>
@@ -1883,27 +1907,27 @@
         <v>3.5</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H15" s="5">
         <v>3.5</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E16" s="5">
         <v>370</v>
@@ -1912,27 +1936,27 @@
         <v>3.5</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5">
         <v>3.5</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E17" s="5">
         <f>235-15</f>
@@ -1942,27 +1966,27 @@
         <v>2</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="5">
         <v>4.5</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5">
         <f>240-15</f>
@@ -1972,27 +1996,27 @@
         <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18" s="5">
         <v>4.5</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="5">
         <v>355</v>
@@ -2001,27 +2025,27 @@
         <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H19" s="5">
         <v>5</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="5">
         <f>25+310+25-10</f>
@@ -2031,27 +2055,27 @@
         <v>2</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H20" s="5">
         <v>5</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E21" s="5">
         <v>225</v>
@@ -2060,27 +2084,27 @@
         <v>3.5</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="5">
         <v>3.5</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="5">
         <v>95</v>
@@ -2089,27 +2113,27 @@
         <v>3.5</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H22" s="5">
         <v>7</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="5">
         <v>100</v>
@@ -2118,27 +2142,27 @@
         <v>3.5</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" s="5">
         <v>7</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="E24" s="5">
         <v>105</v>
@@ -2147,27 +2171,27 @@
         <v>3.5</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H24" s="5">
         <v>7</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="5">
         <v>150</v>
@@ -2176,27 +2200,27 @@
         <v>3.5</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H25" s="5">
         <v>3.5</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5">
         <f>1340+20+10+10</f>
@@ -2206,27 +2230,27 @@
         <v>3</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H26" s="5">
         <v>4.8</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E27" s="5">
         <f>1340+20+10+10</f>
@@ -2236,27 +2260,27 @@
         <v>3</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27" s="5">
         <v>4.8</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="5">
         <v>950</v>
@@ -2265,27 +2289,27 @@
         <v>2</v>
       </c>
       <c r="G28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="5">
-        <v>3</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E29" s="5">
         <v>390</v>
@@ -2294,27 +2318,27 @@
         <v>2</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H29" s="5">
         <v>7</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E30" s="5">
         <v>560</v>
@@ -2323,27 +2347,27 @@
         <v>3</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H30" s="5">
         <v>7</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E31" s="5">
         <f>285+15</f>
@@ -2353,27 +2377,27 @@
         <v>3</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" s="5">
         <v>7</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="5">
         <v>625</v>
@@ -2382,27 +2406,27 @@
         <v>3</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" s="5">
         <v>7</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" s="5">
         <v>230</v>
@@ -2411,27 +2435,27 @@
         <v>3</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H33" s="5">
         <v>7</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" s="5">
         <v>325</v>
@@ -2440,27 +2464,27 @@
         <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H34" s="5">
         <v>7</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E35" s="5">
         <v>185</v>
@@ -2469,27 +2493,27 @@
         <v>3</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H35" s="5">
         <v>3</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E36" s="5">
         <v>185</v>
@@ -2498,27 +2522,27 @@
         <v>3</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="5">
         <v>3</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E37" s="5">
         <v>480</v>
@@ -2527,27 +2551,27 @@
         <v>3.5</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H37" s="5">
         <v>11</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" s="5">
         <v>305</v>
@@ -2556,27 +2580,27 @@
         <v>7</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H38" s="5">
         <v>11</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="5">
         <v>425</v>
@@ -2585,27 +2609,27 @@
         <v>5</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H39" s="5">
         <v>11</v>
       </c>
       <c r="I39" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="C40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="E40" s="5">
         <v>730</v>
@@ -2614,27 +2638,27 @@
         <v>2</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H40" s="5">
         <v>7</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" s="5">
         <v>730</v>
@@ -2643,27 +2667,27 @@
         <v>2</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H41" s="5">
         <v>7</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E42" s="5">
         <v>190</v>
@@ -2672,27 +2696,27 @@
         <v>2</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H42" s="5">
         <v>3</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E43" s="5">
         <v>190</v>
@@ -2701,27 +2725,27 @@
         <v>2</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H43" s="5">
         <v>3</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E44" s="5">
         <v>1130</v>
@@ -2730,27 +2754,27 @@
         <v>3</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H44" s="5">
         <v>7</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E45" s="5">
         <v>1130</v>
@@ -2759,27 +2783,27 @@
         <v>3</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H45" s="5">
         <v>7</v>
       </c>
       <c r="I45" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="C46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="E46" s="5">
         <v>220</v>
@@ -2788,27 +2812,27 @@
         <v>2</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H46" s="5">
         <v>3</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="E47" s="5">
         <v>850</v>
@@ -2817,27 +2841,27 @@
         <v>3</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H47" s="5">
         <v>3</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E48" s="5">
         <v>220</v>
@@ -2846,27 +2870,27 @@
         <v>2</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H48" s="5">
         <v>3</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E49" s="5">
         <v>115</v>
@@ -2875,27 +2899,27 @@
         <v>3.5</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H49" s="5">
         <v>3.5</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E50" s="5">
         <v>115</v>
@@ -2904,27 +2928,27 @@
         <v>3.5</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H50" s="5">
         <v>3.5</v>
       </c>
       <c r="I50" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="C51" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E51" s="5">
         <v>115</v>
@@ -2933,27 +2957,27 @@
         <v>3.5</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H51" s="5">
         <v>3.5</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E52" s="5">
         <v>150</v>
@@ -2962,27 +2986,27 @@
         <v>3.5</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H52" s="5">
         <v>3.5</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="E53" s="5">
         <v>980</v>
@@ -2991,27 +3015,27 @@
         <v>5</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H53" s="5">
         <v>11</v>
       </c>
       <c r="I53" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E54" s="5">
         <v>1200</v>
@@ -3020,27 +3044,27 @@
         <v>12</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H54" s="5">
         <v>5</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E55" s="5">
         <v>1810</v>
@@ -3049,27 +3073,27 @@
         <v>2</v>
       </c>
       <c r="G55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H55" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E56" s="5">
         <v>2650</v>
@@ -3078,7 +3102,7 @@
         <v>3.5</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H56" s="5">
         <v>3</v>
@@ -3087,18 +3111,18 @@
         <v>39000040</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="D57" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="E57" s="5">
         <v>625</v>
@@ -3113,21 +3137,21 @@
         <v>11</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E58" s="5">
         <v>1610</v>
@@ -3136,27 +3160,27 @@
         <v>2</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H58" s="5">
         <v>7</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E59" s="5">
         <v>650</v>
@@ -3171,21 +3195,21 @@
         <v>7</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E60" s="5">
         <f>1400+10</f>
@@ -3195,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H60" s="5">
         <v>3</v>
@@ -3206,16 +3230,16 @@
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="E61" s="5">
         <f>1400+10</f>
@@ -3231,21 +3255,21 @@
         <v>2</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E62" s="5">
         <v>1230</v>
@@ -3254,27 +3278,27 @@
         <v>3.5</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H62" s="5">
         <v>7</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="E63" s="5">
         <f>2220-140</f>
@@ -3284,27 +3308,27 @@
         <v>2</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H63" s="5">
         <v>3</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E64" s="5">
         <f>1320+5</f>
@@ -3323,18 +3347,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="D65" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="E65" s="5">
         <v>950</v>
@@ -3343,27 +3367,27 @@
         <v>3.5</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H65" s="5">
         <v>11</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E66" s="5">
         <f>2590+10</f>
@@ -3373,7 +3397,7 @@
         <v>3.5</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H66" s="5">
         <v>3</v>
@@ -3382,18 +3406,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="E67" s="5">
         <v>1400</v>
@@ -3402,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H67" s="5">
         <v>3</v>
@@ -3411,18 +3435,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E68" s="5">
         <v>1120</v>
@@ -3431,27 +3455,27 @@
         <v>3.5</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H68" s="5">
         <v>5</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E69" s="5">
         <f>660+5</f>
@@ -3461,7 +3485,7 @@
         <v>7</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H69" s="5">
         <v>3</v>
@@ -3470,18 +3494,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E70" s="5">
         <f>1320-15</f>
@@ -3491,27 +3515,27 @@
         <v>3</v>
       </c>
       <c r="G70" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="H70" s="5">
-        <v>2</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E71" s="5">
         <v>1305</v>
@@ -3520,27 +3544,27 @@
         <v>3</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H71" s="5">
         <v>2</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E72" s="5">
         <v>1235</v>
@@ -3549,27 +3573,27 @@
         <v>3.5</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H72" s="5">
         <v>7</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E73" s="5">
         <f>1280-300</f>
@@ -3585,21 +3609,21 @@
         <v>12</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="E74" s="5">
         <f>220+15</f>
@@ -3609,27 +3633,27 @@
         <v>5</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H74" s="5">
         <v>7</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E75" s="5">
         <v>625</v>
@@ -3644,21 +3668,21 @@
         <v>11</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E76" s="5">
         <v>855</v>
@@ -3667,27 +3691,27 @@
         <v>3.5</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H76" s="5">
         <v>7</v>
       </c>
       <c r="I76" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="E77" s="5">
         <v>2200</v>
@@ -3702,21 +3726,21 @@
         <v>11</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E78" s="5">
         <v>780</v>
@@ -3731,21 +3755,21 @@
         <v>11</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E79" s="5">
         <v>890</v>
@@ -3760,21 +3784,21 @@
         <v>7</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E80" s="5">
         <v>2580</v>
@@ -3783,7 +3807,7 @@
         <v>3.5</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H80" s="5">
         <v>3</v>
@@ -3792,18 +3816,18 @@
         <v>39000040</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E81" s="5">
         <f>1400+10</f>
@@ -3813,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H81" s="5">
         <v>3</v>
@@ -3822,18 +3846,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E82" s="5">
         <f>450-30</f>
@@ -3849,21 +3873,21 @@
         <v>12</v>
       </c>
       <c r="I82" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
+      <c r="C83" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="E83" s="5">
         <f>450-30</f>
@@ -3879,21 +3903,21 @@
         <v>12</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E84" s="5">
         <v>1810</v>
@@ -3902,27 +3926,27 @@
         <v>2</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H84" s="5">
         <v>3.5</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E85" s="5">
         <v>1810</v>
@@ -3931,27 +3955,27 @@
         <v>2</v>
       </c>
       <c r="G85" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H85" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H85" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="D86" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E86" s="5">
         <f>1505+15</f>
@@ -3967,21 +3991,21 @@
         <v>12</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="E87" s="5">
         <v>1410</v>
@@ -3999,18 +4023,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E88" s="5">
         <v>1355</v>
@@ -4019,27 +4043,27 @@
         <v>3.5</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H88" s="5">
         <v>7</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E89" s="5">
         <v>1350</v>
@@ -4048,27 +4072,27 @@
         <v>3.5</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H89" s="5">
         <v>7</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E90" s="5">
         <f>950+20</f>
@@ -4078,27 +4102,27 @@
         <v>3.5</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H90" s="5">
         <v>7</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="E91" s="5">
         <f>1415+10</f>
@@ -4114,21 +4138,21 @@
         <v>7</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E92" s="5">
         <v>1070</v>
@@ -4143,21 +4167,21 @@
         <v>7</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E93" s="5">
         <v>1060</v>
@@ -4172,21 +4196,21 @@
         <v>7</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E94" s="5">
         <v>1130</v>
@@ -4195,27 +4219,27 @@
         <v>2</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H94" s="5">
         <v>7</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E95" s="5">
         <v>2020</v>
@@ -4230,21 +4254,21 @@
         <v>3</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="E96" s="5">
         <v>1020</v>
@@ -4264,16 +4288,16 @@
     </row>
     <row r="97" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E97" s="5">
         <v>1020</v>
@@ -4293,16 +4317,16 @@
     </row>
     <row r="98" spans="1:9" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E98" s="8">
         <v>1610</v>
@@ -4311,56 +4335,56 @@
         <v>3</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H98" s="8">
         <v>2</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E99" s="8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="17" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E99" s="15">
         <v>1610</v>
       </c>
-      <c r="F99" s="8">
-        <v>3</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="H99" s="8">
-        <v>2</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>273</v>
+      <c r="F99" s="15">
+        <v>3</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H99" s="15">
+        <v>2</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E100" s="5">
         <v>1610</v>
@@ -4369,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H100" s="5">
         <v>2</v>
@@ -4378,18 +4402,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="E101" s="5">
         <v>960</v>
@@ -4398,7 +4422,7 @@
         <v>5</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H101" s="5">
         <v>2</v>
@@ -4407,18 +4431,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E102" s="5">
         <v>960</v>
@@ -4427,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H102" s="5">
         <v>2</v>
@@ -4438,16 +4462,16 @@
     </row>
     <row r="103" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E103" s="5">
         <f>1320+5</f>
@@ -4466,18 +4490,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E104" s="5">
         <f>1320+5</f>
@@ -4496,18 +4520,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E105" s="5">
         <v>520</v>
@@ -4516,27 +4540,27 @@
         <v>2</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H105" s="5">
         <v>7</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E106" s="5">
         <f>1550+5</f>
@@ -4555,18 +4579,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E107" s="5">
         <f>1550+5</f>
@@ -4585,18 +4609,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E108" s="5">
         <f>1320+10</f>
@@ -4615,18 +4639,18 @@
         <v>39000048</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E109" s="5">
         <v>920</v>
@@ -4641,21 +4665,21 @@
         <v>5</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E110" s="5">
         <f>920-15</f>
@@ -4671,21 +4695,21 @@
         <v>5</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E111" s="5">
         <v>1830</v>
@@ -4694,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H111" s="5">
         <v>2</v>
@@ -4705,16 +4729,16 @@
     </row>
     <row r="112" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E112" s="5">
         <v>1830</v>
@@ -4734,16 +4758,16 @@
     </row>
     <row r="113" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E113" s="5">
         <f>2410+10</f>
@@ -4764,16 +4788,16 @@
     </row>
     <row r="114" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E114" s="5">
         <v>2410</v>
@@ -4791,18 +4815,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E115" s="5">
         <v>960</v>
@@ -4811,27 +4835,27 @@
         <v>2</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H115" s="5">
         <v>3</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E116" s="5">
         <v>960</v>
@@ -4840,27 +4864,27 @@
         <v>2</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H116" s="5">
         <v>3</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E117" s="5">
         <v>960</v>
@@ -4869,27 +4893,27 @@
         <v>2</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H117" s="5">
         <v>3</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E118" s="5">
         <v>960</v>
@@ -4898,27 +4922,27 @@
         <v>2</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H118" s="5">
         <v>3</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E119" s="5">
         <v>1520</v>
@@ -4927,27 +4951,27 @@
         <v>2</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H119" s="5">
         <v>3</v>
       </c>
       <c r="I119" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="C120" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E120" s="5">
         <v>1525</v>
@@ -4956,27 +4980,27 @@
         <v>2</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H120" s="5">
         <v>3</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E121" s="5">
         <v>1525</v>
@@ -4985,27 +5009,27 @@
         <v>2</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H121" s="5">
         <v>3</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="E122" s="5">
         <v>1525</v>
@@ -5014,27 +5038,27 @@
         <v>2</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H122" s="5">
         <v>3</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E123" s="5">
         <v>1665</v>
@@ -5043,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H123" s="5">
         <v>2</v>
@@ -5052,18 +5076,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E124" s="5">
         <v>1665</v>
@@ -5072,7 +5096,7 @@
         <v>3</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H124" s="5">
         <v>2</v>
@@ -5081,18 +5105,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E125" s="5">
         <v>1665</v>
@@ -5101,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H125" s="5">
         <v>2</v>
@@ -5110,18 +5134,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E126" s="5">
         <v>1100</v>
@@ -5130,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H126" s="5">
         <v>2</v>
@@ -5139,18 +5163,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E127" s="5">
         <v>1100</v>
@@ -5159,7 +5183,7 @@
         <v>3</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H127" s="5">
         <v>2</v>
@@ -5168,18 +5192,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E128" s="5">
         <v>1100</v>
@@ -5188,7 +5212,7 @@
         <v>3</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H128" s="5">
         <v>2</v>
@@ -5197,18 +5221,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E129" s="5">
         <v>300</v>
@@ -5217,27 +5241,27 @@
         <v>2</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H129" s="5">
         <v>7</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E130" s="5">
         <v>605</v>
@@ -5246,27 +5270,27 @@
         <v>3</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H130" s="5">
         <v>7</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E131" s="5">
         <v>1150</v>
@@ -5275,27 +5299,27 @@
         <v>3</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H131" s="5">
         <v>7</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E132" s="5">
         <v>1610</v>
@@ -5304,27 +5328,27 @@
         <v>2</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H132" s="5">
         <v>7</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E133" s="5">
         <v>650</v>
@@ -5339,21 +5363,21 @@
         <v>7</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E134" s="5">
         <v>610</v>
@@ -5362,27 +5386,27 @@
         <v>7</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H134" s="5">
         <v>7</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E135" s="5">
         <v>610</v>
@@ -5391,27 +5415,27 @@
         <v>7</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H135" s="5">
         <v>7</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E136" s="5">
         <v>1810</v>
@@ -5420,27 +5444,27 @@
         <v>2</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H136" s="5">
         <v>3</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E137" s="5">
         <v>500</v>
@@ -5455,21 +5479,21 @@
         <v>7</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E138" s="5">
         <v>470</v>
@@ -5484,21 +5508,21 @@
         <v>7</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E139" s="5">
         <v>445</v>
@@ -5513,21 +5537,21 @@
         <v>7</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E140" s="5">
         <f>2220-140</f>
@@ -5537,27 +5561,27 @@
         <v>2</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H140" s="5">
         <v>3</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E141" s="5">
         <v>360</v>
@@ -5566,27 +5590,27 @@
         <v>5</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H141" s="5">
         <v>11</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E142" s="5">
         <v>2020</v>
@@ -5601,21 +5625,21 @@
         <v>3</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E143" s="5">
         <v>1825</v>
@@ -5630,21 +5654,21 @@
         <v>3</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E144" s="5">
         <v>1825</v>
@@ -5659,21 +5683,21 @@
         <v>3</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E145" s="5">
         <v>1825</v>
@@ -5688,21 +5712,21 @@
         <v>3</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E146" s="5">
         <v>1825</v>
@@ -5717,21 +5741,21 @@
         <v>3</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E147" s="5">
         <f>2400+10</f>
@@ -5741,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H147" s="5">
         <v>2</v>
@@ -5750,18 +5774,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E148" s="5">
         <f>2400+10</f>
@@ -5771,7 +5795,7 @@
         <v>3</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H148" s="5">
         <v>2</v>
@@ -5780,18 +5804,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E149" s="5">
         <f>2400+10</f>
@@ -5807,21 +5831,21 @@
         <v>3</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E150" s="5">
         <f>2400+10</f>
@@ -5837,21 +5861,21 @@
         <v>3</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E151" s="5">
         <f>1060+35</f>
@@ -5861,27 +5885,27 @@
         <v>3</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H151" s="5">
         <v>7</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E152" s="5">
         <f>1840+5</f>
@@ -5891,7 +5915,7 @@
         <v>3</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H152" s="5">
         <v>2</v>
@@ -5900,18 +5924,18 @@
         <v>561349000</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E153" s="5">
         <f>1825+25</f>
@@ -5927,21 +5951,21 @@
         <v>3</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E154" s="5">
         <f>1650+35</f>
@@ -5951,27 +5975,27 @@
         <v>3</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H154" s="5">
         <v>2</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E155" s="5">
         <f>1650+35</f>
@@ -5981,27 +6005,27 @@
         <v>3</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H155" s="5">
         <v>2</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E156" s="5">
         <v>3130</v>
@@ -6010,27 +6034,27 @@
         <v>2</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H156" s="5">
         <v>3</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E157" s="5">
         <f>4680+50</f>
@@ -6040,27 +6064,27 @@
         <v>3</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H157" s="5">
         <v>3</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E158" s="5">
         <f>2115+20</f>
@@ -6070,27 +6094,27 @@
         <v>3</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H158" s="5">
         <v>2</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E159" s="5">
         <v>1470</v>
@@ -6099,27 +6123,27 @@
         <v>3</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H159" s="5">
         <v>4.8</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="D160" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E160" s="5">
         <v>1470</v>
@@ -6128,27 +6152,27 @@
         <v>3</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H160" s="5">
         <v>4.8</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E161" s="5">
         <v>1035</v>
@@ -6157,27 +6181,27 @@
         <v>2</v>
       </c>
       <c r="G161" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H161" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H161" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I161" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="s">
+      <c r="B162" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E162" s="5">
         <f>390+100</f>
@@ -6187,27 +6211,27 @@
         <v>2</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H162" s="5">
         <v>7</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E163" s="5">
         <v>560</v>
@@ -6216,27 +6240,27 @@
         <v>3.5</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H163" s="5">
         <v>7</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E164" s="5">
         <f>285+15+100</f>
@@ -6246,27 +6270,27 @@
         <v>3</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H164" s="5">
         <v>7</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E165" s="5">
         <v>625</v>
@@ -6275,27 +6299,27 @@
         <v>3.5</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H165" s="5">
         <v>7</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E166" s="5">
         <f>230+100</f>
@@ -6305,27 +6329,27 @@
         <v>3</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H166" s="5">
         <v>7</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E167" s="5">
         <v>415</v>
@@ -6334,27 +6358,27 @@
         <v>2</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H167" s="5">
         <v>7</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E168" s="5">
         <v>185</v>
@@ -6363,27 +6387,27 @@
         <v>3</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H168" s="5">
         <v>3.5</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E169" s="5">
         <v>185</v>
@@ -6392,27 +6416,27 @@
         <v>3.5</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H169" s="5">
         <v>3</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D170" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E170" s="5">
         <v>480</v>
@@ -6421,27 +6445,27 @@
         <v>3</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H170" s="5">
         <v>11</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D171" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E171" s="5">
         <v>310</v>
@@ -6450,27 +6474,27 @@
         <v>7</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H171" s="5">
         <v>11</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D172" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E172" s="5">
         <f>425+100</f>
@@ -6480,27 +6504,27 @@
         <v>5</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H172" s="5">
         <v>11</v>
       </c>
       <c r="I172" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="4" t="s">
+      <c r="C173" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="E173" s="5">
         <f>730+100</f>
@@ -6510,27 +6534,27 @@
         <v>2</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H173" s="5">
         <v>7</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E174" s="5">
         <f>730+100</f>
@@ -6540,27 +6564,27 @@
         <v>2</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H174" s="5">
         <v>7</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E175" s="5">
         <v>190</v>
@@ -6569,27 +6593,27 @@
         <v>2</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H175" s="5">
         <v>3</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D176" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E176" s="5">
         <v>190</v>
@@ -6598,27 +6622,27 @@
         <v>2</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H176" s="5">
         <v>3</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E177" s="5">
         <f>1130+100</f>
@@ -6628,27 +6652,27 @@
         <v>3.5</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H177" s="5">
         <v>7</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E178" s="5">
         <f>1130+100</f>
@@ -6658,27 +6682,27 @@
         <v>3.5</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H178" s="5">
         <v>7</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="E179" s="5">
         <v>220</v>
@@ -6687,27 +6711,27 @@
         <v>2</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H179" s="5">
         <v>3</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E180" s="5">
         <v>220</v>
@@ -6716,27 +6740,27 @@
         <v>2</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H180" s="5">
         <v>3</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E181" s="5">
         <v>1045</v>
@@ -6745,7 +6769,7 @@
         <v>3.5</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H181" s="5">
         <v>2</v>
@@ -6754,18 +6778,18 @@
         <v>561349001</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E182" s="5">
         <v>1045</v>
@@ -6774,7 +6798,7 @@
         <v>3.5</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H182" s="5">
         <v>2</v>
@@ -6783,18 +6807,18 @@
         <v>561349001</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D183" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="E183" s="5">
         <v>670</v>
@@ -6803,27 +6827,27 @@
         <v>3.5</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H183" s="5">
         <v>7</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E184" s="5">
         <v>370</v>
@@ -6838,21 +6862,21 @@
         <v>7</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D185" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="E185" s="5">
         <v>285</v>
@@ -6861,27 +6885,27 @@
         <v>3</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H185" s="5">
         <v>7</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D186" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="E186" s="5">
         <v>950</v>
@@ -6890,27 +6914,27 @@
         <v>3</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H186" s="5">
         <v>3.5</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="D187" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E187" s="5">
         <v>425</v>
@@ -6919,27 +6943,27 @@
         <v>5</v>
       </c>
       <c r="G187" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H187" s="5">
+        <v>3</v>
+      </c>
+      <c r="I187" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H187" s="5">
-        <v>3</v>
-      </c>
-      <c r="I187" s="11" t="s">
+      <c r="B188" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="4" t="s">
+      <c r="C188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E188" s="5">
         <v>425</v>
@@ -6948,27 +6972,27 @@
         <v>5</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H188" s="5">
         <v>3</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E189" s="5">
         <v>425</v>
@@ -6977,27 +7001,27 @@
         <v>5</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H189" s="5">
         <v>3</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E190" s="5">
         <v>185</v>
@@ -7006,27 +7030,27 @@
         <v>3.5</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H190" s="5">
         <v>4.8</v>
       </c>
       <c r="I190" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="E191" s="5">
         <v>185</v>
@@ -7035,27 +7059,27 @@
         <v>3.5</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H191" s="5">
         <v>4.8</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="D192" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E192" s="5">
         <v>158</v>
@@ -7064,27 +7088,27 @@
         <v>3.5</v>
       </c>
       <c r="G192" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H192" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I192" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H192" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I192" s="11" t="s">
+      <c r="B193" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="4" t="s">
+      <c r="C193" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E193" s="5">
         <v>158</v>
@@ -7093,27 +7117,27 @@
         <v>3.5</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H193" s="5">
         <v>3.5</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E194" s="5">
         <v>158</v>
@@ -7122,27 +7146,27 @@
         <v>3.5</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H194" s="5">
         <v>3.5</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E195" s="5">
         <v>158</v>
@@ -7151,27 +7175,27 @@
         <v>3.5</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H195" s="5">
         <v>3.5</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D196" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E196" s="5">
         <v>295</v>
@@ -7180,27 +7204,27 @@
         <v>7</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H196" s="5">
         <v>3.5</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D197" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E197" s="5">
         <v>175</v>
@@ -7213,21 +7237,21 @@
         <v>5</v>
       </c>
       <c r="I197" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="4" t="s">
+      <c r="C198" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E198" s="5">
         <v>155</v>
@@ -7236,27 +7260,27 @@
         <v>4.8</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H198" s="5">
         <v>5</v>
       </c>
       <c r="I198" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="4" t="s">
+      <c r="C199" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E199" s="5">
         <v>155</v>
@@ -7265,27 +7289,27 @@
         <v>4.8</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H199" s="5">
         <v>5</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="D200" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E200" s="5">
         <v>425</v>
@@ -7294,27 +7318,27 @@
         <v>5</v>
       </c>
       <c r="G200" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H200" s="5">
+        <v>3</v>
+      </c>
+      <c r="I200" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H200" s="5">
-        <v>3</v>
-      </c>
-      <c r="I200" s="11" t="s">
+      <c r="B201" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="4" t="s">
+      <c r="C201" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E201" s="5">
         <v>425</v>
@@ -7323,27 +7347,27 @@
         <v>5</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H201" s="5">
         <v>3</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E202" s="5">
         <v>425</v>
@@ -7352,27 +7376,27 @@
         <v>5</v>
       </c>
       <c r="G202" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" s="5">
+        <v>3</v>
+      </c>
+      <c r="I202" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H202" s="5">
-        <v>3</v>
-      </c>
-      <c r="I202" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="s">
+      <c r="C203" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="D203" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E203" s="5">
         <v>158</v>
@@ -7381,27 +7405,27 @@
         <v>3.5</v>
       </c>
       <c r="G203" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H203" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I203" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H203" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I203" s="11" t="s">
+      <c r="B204" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="4" t="s">
+      <c r="C204" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D204" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E204" s="5">
         <v>158</v>
@@ -7410,27 +7434,27 @@
         <v>3.5</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H204" s="5">
         <v>3.5</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D205" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E205" s="5">
         <v>158</v>
@@ -7439,27 +7463,27 @@
         <v>3.5</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H205" s="5">
         <v>3.5</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E206" s="5">
         <v>158</v>
@@ -7468,27 +7492,27 @@
         <v>3.5</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H206" s="5">
         <v>3.5</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="D207" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E207" s="5">
         <v>295</v>
@@ -7497,27 +7521,27 @@
         <v>7</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H207" s="5">
         <v>3.5</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C208" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="D208" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E208" s="5">
         <v>175</v>
@@ -7530,21 +7554,21 @@
         <v>5</v>
       </c>
       <c r="I208" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="4" t="s">
+      <c r="C209" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D209" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E209" s="5">
         <v>175</v>
@@ -7553,27 +7577,27 @@
         <v>3.5</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H209" s="5">
         <v>5</v>
       </c>
       <c r="I209" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="4" t="s">
+      <c r="C210" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E210" s="5">
         <v>175</v>
@@ -7582,24 +7606,17 @@
         <v>3.5</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H210" s="5">
         <v>5</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:I210" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="39000048"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
